--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_18_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_18_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1379678.512775034</v>
+        <v>1379012.151098893</v>
       </c>
     </row>
     <row r="7">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>55.83341793564136</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1385,52 +1385,52 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>23.74993846779111</v>
+      </c>
+      <c r="T11" t="n">
+        <v>18.92346735507959</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>33.79915464223373</v>
+      </c>
+      <c r="W11" t="n">
         <v>86.82170806664908</v>
-      </c>
-      <c r="I11" t="n">
-        <v>37.05034583237538</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>23.74993846779117</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>46.66056629594545</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>41.06051842699392</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.036068026875139</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>76.24655864448351</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
+        <v>11.45560918177133</v>
+      </c>
+      <c r="U12" t="n">
+        <v>33.73864095187865</v>
+      </c>
+      <c r="V12" t="n">
         <v>86.82170806664908</v>
       </c>
-      <c r="U12" t="n">
-        <v>33.73864095187871</v>
-      </c>
-      <c r="V12" t="n">
-        <v>37.15992189271606</v>
-      </c>
       <c r="W12" t="n">
-        <v>63.2155845543254</v>
+        <v>63.21558455432535</v>
       </c>
       <c r="X12" t="n">
-        <v>13.82391541678442</v>
+        <v>13.82391541678436</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.89528711133943</v>
+        <v>86.82170806664908</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>31.85365758915258</v>
+        <v>31.85365758915252</v>
       </c>
       <c r="T13" t="n">
-        <v>20.24917275860154</v>
+        <v>20.24917275860147</v>
       </c>
       <c r="U13" t="n">
-        <v>85.16725939265768</v>
+        <v>85.16725939265763</v>
       </c>
       <c r="V13" t="n">
-        <v>41.62001616176371</v>
+        <v>41.62001616176366</v>
       </c>
       <c r="W13" t="n">
-        <v>86.82170806664914</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="X13" t="n">
-        <v>18.43045638555634</v>
+        <v>18.43045638555628</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.65227379148223</v>
+        <v>13.65227379148217</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>86.82170806664908</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
-        <v>20.49874727764955</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>37.05034583237532</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>10.88852681407947</v>
       </c>
       <c r="T14" t="n">
         <v>18.92346735507959</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>46.66056629594539</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70.82701748958762</v>
+        <v>67.11618108860327</v>
       </c>
       <c r="C15" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1746,13 +1746,13 @@
         <v>37.159921892716</v>
       </c>
       <c r="W15" t="n">
-        <v>63.21558455432535</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="X15" t="n">
         <v>13.82391541678436</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.89528711133937</v>
+        <v>86.82170806664908</v>
       </c>
     </row>
     <row r="16">
@@ -1816,7 +1816,7 @@
         <v>31.85365758915252</v>
       </c>
       <c r="T16" t="n">
-        <v>20.24917275860148</v>
+        <v>20.24917275860147</v>
       </c>
       <c r="U16" t="n">
         <v>85.16725939265763</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1938,49 +1938,49 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>86.82170806664908</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
         <v>76.47256046510448</v>
       </c>
-      <c r="S18" t="n">
+      <c r="U18" t="n">
         <v>86.82170806664908</v>
       </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
       <c r="V18" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>39.5379879932637</v>
       </c>
       <c r="C20" t="n">
-        <v>15.65624499660896</v>
+        <v>15.65624499660919</v>
       </c>
       <c r="D20" t="n">
         <v>3.222907257657653</v>
@@ -2202,31 +2202,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.036068026875139</v>
+        <v>6.036068026875125</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>70.43649243822939</v>
       </c>
       <c r="V21" t="n">
         <v>86.82170806664908</v>
       </c>
       <c r="W21" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>70.43649243822939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2330,7 +2330,7 @@
         <v>68.64999725544385</v>
       </c>
       <c r="G23" t="n">
-        <v>84.27671840285255</v>
+        <v>84.27671840285257</v>
       </c>
       <c r="H23" t="n">
         <v>12.34718069694395</v>
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>51.85834769223185</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,16 +2439,16 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.036068026875139</v>
+        <v>6.036068026875125</v>
       </c>
       <c r="R24" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>18.57814474599754</v>
+        <v>86.82170806664904</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>70.43649243822934</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>86.82170806664904</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>86.82170806664904</v>
       </c>
     </row>
     <row r="25">
@@ -2558,22 +2558,22 @@
         <v>137.3661894292511</v>
       </c>
       <c r="D26" t="n">
-        <v>124.9328516902996</v>
+        <v>124.9328516902995</v>
       </c>
       <c r="E26" t="n">
-        <v>158.6396041097085</v>
+        <v>158.6396041097084</v>
       </c>
       <c r="F26" t="n">
-        <v>190.3599416880858</v>
+        <v>190.3599416880857</v>
       </c>
       <c r="G26" t="n">
         <v>205.9866628354945</v>
       </c>
       <c r="H26" t="n">
-        <v>134.0571251295859</v>
+        <v>134.0571251295858</v>
       </c>
       <c r="I26" t="n">
-        <v>27.70003690313388</v>
+        <v>27.70003690313382</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39962953854968</v>
+        <v>14.39962953854962</v>
       </c>
       <c r="T26" t="n">
-        <v>9.573158425838155</v>
+        <v>9.573158425838102</v>
       </c>
       <c r="U26" t="n">
-        <v>37.31025736670395</v>
+        <v>37.31025736670389</v>
       </c>
       <c r="V26" t="n">
         <v>108.0404756572243</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>50.39522228465746</v>
+        <v>11.71307052710114</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.036068026875125</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T27" t="n">
-        <v>2.105300252529896</v>
+        <v>214.9446082044576</v>
       </c>
       <c r="U27" t="n">
         <v>237.2276399745649</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>27.80961296347451</v>
       </c>
       <c r="W27" t="n">
-        <v>53.86527562508391</v>
+        <v>53.86527562508385</v>
       </c>
       <c r="X27" t="n">
-        <v>4.473606487542924</v>
+        <v>4.473606487542867</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.54497818209794</v>
+        <v>10.54497818209788</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.50334865991108</v>
+        <v>22.50334865991102</v>
       </c>
       <c r="T28" t="n">
-        <v>10.89886382936004</v>
+        <v>10.89886382935998</v>
       </c>
       <c r="U28" t="n">
-        <v>75.81695046341619</v>
+        <v>75.81695046341613</v>
       </c>
       <c r="V28" t="n">
-        <v>32.26970723252222</v>
+        <v>32.26970723252217</v>
       </c>
       <c r="W28" t="n">
-        <v>77.47139913740764</v>
+        <v>77.47139913740759</v>
       </c>
       <c r="X28" t="n">
-        <v>9.080147456314847</v>
+        <v>9.080147456314791</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.301964862240737</v>
+        <v>4.301964862240681</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2843,7 @@
         <v>14.39962953854962</v>
       </c>
       <c r="T29" t="n">
-        <v>9.573158425838098</v>
+        <v>9.573158425838097</v>
       </c>
       <c r="U29" t="n">
         <v>37.31025736670389</v>
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>47.80188408136319</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2913,16 +2913,16 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.036068026875125</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T30" t="n">
-        <v>147.1792515246647</v>
+        <v>214.9446082044576</v>
       </c>
       <c r="U30" t="n">
         <v>24.38833202263716</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.50334865991103</v>
+        <v>22.50334865991102</v>
       </c>
       <c r="T31" t="n">
         <v>10.89886382935998</v>
@@ -3035,7 +3035,7 @@
         <v>124.9328516902995</v>
       </c>
       <c r="E32" t="n">
-        <v>158.6396041097084</v>
+        <v>158.6396041097083</v>
       </c>
       <c r="F32" t="n">
         <v>190.3599416880857</v>
@@ -3047,7 +3047,7 @@
         <v>134.0571251295858</v>
       </c>
       <c r="I32" t="n">
-        <v>27.70003690313376</v>
+        <v>27.70003690313374</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.39962953854956</v>
+        <v>14.39962953854953</v>
       </c>
       <c r="T32" t="n">
-        <v>9.573158425838045</v>
+        <v>9.573158425838017</v>
       </c>
       <c r="U32" t="n">
-        <v>37.31025736670384</v>
+        <v>37.31025736670381</v>
       </c>
       <c r="V32" t="n">
         <v>108.0404756572242</v>
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.036068026875125</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.105300252529783</v>
+        <v>2.105300252529754</v>
       </c>
       <c r="U33" t="n">
-        <v>24.3883320226371</v>
+        <v>24.38833202263708</v>
       </c>
       <c r="V33" t="n">
-        <v>27.80961296347445</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>90.60876636981267</v>
+        <v>4.473606487542781</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.54497818209782</v>
+        <v>213.7275715598091</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.50334865991097</v>
+        <v>22.50334865991094</v>
       </c>
       <c r="T34" t="n">
-        <v>10.89886382935993</v>
+        <v>10.8988638293599</v>
       </c>
       <c r="U34" t="n">
-        <v>75.81695046341608</v>
+        <v>75.81695046341605</v>
       </c>
       <c r="V34" t="n">
-        <v>32.26970723252211</v>
+        <v>32.26970723252208</v>
       </c>
       <c r="W34" t="n">
-        <v>77.47139913740753</v>
+        <v>77.4713991374075</v>
       </c>
       <c r="X34" t="n">
-        <v>9.080147456314734</v>
+        <v>9.080147456314705</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.301964862240624</v>
+        <v>4.301964862240595</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>137.1737096027775</v>
+        <v>137.1737096027776</v>
       </c>
       <c r="C35" t="n">
-        <v>113.291966606123</v>
+        <v>113.2919666061231</v>
       </c>
       <c r="D35" t="n">
-        <v>100.8586288671715</v>
+        <v>100.8586288671716</v>
       </c>
       <c r="E35" t="n">
-        <v>134.5653812865804</v>
+        <v>134.5653812865805</v>
       </c>
       <c r="F35" t="n">
-        <v>166.2857188649577</v>
+        <v>166.2857188649578</v>
       </c>
       <c r="G35" t="n">
-        <v>181.9124400123664</v>
+        <v>181.9124400123665</v>
       </c>
       <c r="H35" t="n">
-        <v>109.9829023064578</v>
+        <v>109.9829023064579</v>
       </c>
       <c r="I35" t="n">
-        <v>3.625814080005767</v>
+        <v>3.625814080005881</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.23603454357585</v>
+        <v>13.23603454357595</v>
       </c>
       <c r="V35" t="n">
-        <v>83.96625283409622</v>
+        <v>83.96625283409634</v>
       </c>
       <c r="W35" t="n">
-        <v>100.9829330507111</v>
+        <v>100.9829330507112</v>
       </c>
       <c r="X35" t="n">
-        <v>122.8691835196503</v>
+        <v>122.8691835196504</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.3720366433941</v>
+        <v>145.3720366433942</v>
       </c>
     </row>
     <row r="36">
@@ -3354,19 +3354,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>125.6724707086533</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>107.1386269945785</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>51.85834769223185</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,28 +3387,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.036068026875125</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4695228506099</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9446082044576</v>
       </c>
       <c r="U36" t="n">
-        <v>0.3141091995091076</v>
+        <v>0.3141091995092212</v>
       </c>
       <c r="V36" t="n">
-        <v>3.735390140346453</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>119.0724761359502</v>
+        <v>78.82776205609288</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>51.74272764028809</v>
+        <v>51.7427276402882</v>
       </c>
       <c r="V37" t="n">
-        <v>8.195484409394112</v>
+        <v>8.195484409394226</v>
       </c>
       <c r="W37" t="n">
-        <v>53.39717631427953</v>
+        <v>53.39717631427965</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>137.1737096027775</v>
+        <v>137.1737096027776</v>
       </c>
       <c r="C38" t="n">
-        <v>113.291966606123</v>
+        <v>113.2919666061231</v>
       </c>
       <c r="D38" t="n">
-        <v>100.8586288671715</v>
+        <v>100.8586288671716</v>
       </c>
       <c r="E38" t="n">
-        <v>134.5653812865804</v>
+        <v>134.5653812865805</v>
       </c>
       <c r="F38" t="n">
-        <v>166.2857188649577</v>
+        <v>166.2857188649578</v>
       </c>
       <c r="G38" t="n">
-        <v>181.9124400123664</v>
+        <v>181.9124400123665</v>
       </c>
       <c r="H38" t="n">
-        <v>109.9829023064578</v>
+        <v>109.9829023064579</v>
       </c>
       <c r="I38" t="n">
-        <v>3.625814080005767</v>
+        <v>3.625814080005881</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.23603454357585</v>
+        <v>13.23603454357595</v>
       </c>
       <c r="V38" t="n">
-        <v>83.96625283409622</v>
+        <v>83.96625283409634</v>
       </c>
       <c r="W38" t="n">
-        <v>100.9829330507111</v>
+        <v>100.9829330507112</v>
       </c>
       <c r="X38" t="n">
-        <v>122.8691835196503</v>
+        <v>122.8691835196504</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.3720366433941</v>
+        <v>145.3720366433942</v>
       </c>
     </row>
     <row r="39">
@@ -3582,19 +3582,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>46.90235313932376</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9446082044576</v>
       </c>
       <c r="U39" t="n">
-        <v>0.3141091995091076</v>
+        <v>0.3141091995092212</v>
       </c>
       <c r="V39" t="n">
-        <v>3.735390140346453</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>29.7910528019558</v>
+        <v>29.79105280195591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>100.5581198806829</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>51.74272764028809</v>
+        <v>51.7427276402882</v>
       </c>
       <c r="V40" t="n">
-        <v>8.195484409394112</v>
+        <v>8.195484409394226</v>
       </c>
       <c r="W40" t="n">
-        <v>53.39717631427953</v>
+        <v>53.39717631427965</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>137.1737096027775</v>
+        <v>137.1737096027776</v>
       </c>
       <c r="C41" t="n">
-        <v>113.291966606123</v>
+        <v>113.2919666061231</v>
       </c>
       <c r="D41" t="n">
-        <v>100.8586288671715</v>
+        <v>100.8586288671716</v>
       </c>
       <c r="E41" t="n">
-        <v>134.5653812865803</v>
+        <v>134.5653812865804</v>
       </c>
       <c r="F41" t="n">
-        <v>166.2857188649577</v>
+        <v>166.2857188649578</v>
       </c>
       <c r="G41" t="n">
-        <v>181.9124400123663</v>
+        <v>181.9124400123665</v>
       </c>
       <c r="H41" t="n">
-        <v>109.9829023064577</v>
+        <v>109.9829023064578</v>
       </c>
       <c r="I41" t="n">
-        <v>3.625814080005739</v>
+        <v>3.625814080005853</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>13.23603454357582</v>
+        <v>13.23603454357593</v>
       </c>
       <c r="V41" t="n">
-        <v>83.9662528340962</v>
+        <v>83.96625283409631</v>
       </c>
       <c r="W41" t="n">
-        <v>100.9829330507111</v>
+        <v>100.9829330507112</v>
       </c>
       <c r="X41" t="n">
-        <v>122.8691835196503</v>
+        <v>122.8691835196504</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.3720366433941</v>
+        <v>145.3720366433942</v>
       </c>
     </row>
     <row r="42">
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7380757353064</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,22 +3864,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.3144462547807</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>138.071245465702</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9446082044576</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2276399745649</v>
+        <v>0.3141091995091928</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>3.735390140346539</v>
       </c>
       <c r="W42" t="n">
-        <v>131.4697462165341</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>51.74272764028806</v>
+        <v>51.74272764028817</v>
       </c>
       <c r="V43" t="n">
-        <v>8.195484409394084</v>
+        <v>8.195484409394197</v>
       </c>
       <c r="W43" t="n">
-        <v>53.39717631427951</v>
+        <v>53.39717631427962</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,22 +3980,22 @@
         <v>113.2919666061231</v>
       </c>
       <c r="D44" t="n">
-        <v>100.8586288671715</v>
+        <v>100.8586288671716</v>
       </c>
       <c r="E44" t="n">
         <v>134.5653812865804</v>
       </c>
       <c r="F44" t="n">
-        <v>166.2857188649577</v>
+        <v>166.2857188649578</v>
       </c>
       <c r="G44" t="n">
-        <v>181.9124400123664</v>
+        <v>181.9124400123665</v>
       </c>
       <c r="H44" t="n">
         <v>109.9829023064578</v>
       </c>
       <c r="I44" t="n">
-        <v>3.625814080005824</v>
+        <v>3.625814080005853</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>13.2360345435759</v>
+        <v>13.23603454357593</v>
       </c>
       <c r="V44" t="n">
-        <v>83.96625283409628</v>
+        <v>83.96625283409631</v>
       </c>
       <c r="W44" t="n">
         <v>100.9829330507112</v>
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>141.086633312149</v>
       </c>
       <c r="C45" t="n">
-        <v>46.63309935144423</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7380757353064</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4098,31 +4098,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.036068026875125</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.3141091995091644</v>
+        <v>0.3141091995091928</v>
       </c>
       <c r="V45" t="n">
-        <v>3.73539014034651</v>
+        <v>3.735390140346539</v>
       </c>
       <c r="W45" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>51.74272764028814</v>
+        <v>51.74272764028817</v>
       </c>
       <c r="V46" t="n">
-        <v>8.195484409394169</v>
+        <v>8.195484409394197</v>
       </c>
       <c r="W46" t="n">
-        <v>53.39717631427959</v>
+        <v>53.39717631427962</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>132.0690234120233</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="C11" t="n">
-        <v>132.0690234120233</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="D11" t="n">
-        <v>132.0690234120233</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="E11" t="n">
-        <v>132.0690234120233</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="F11" t="n">
-        <v>132.0690234120233</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="G11" t="n">
-        <v>132.0690234120233</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="H11" t="n">
-        <v>44.37032839520606</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="I11" t="n">
         <v>6.945736645331927</v>
@@ -5045,22 +5045,22 @@
         <v>6.945736645331927</v>
       </c>
       <c r="L11" t="n">
-        <v>55.57291794545647</v>
+        <v>55.5729179454565</v>
       </c>
       <c r="M11" t="n">
         <v>138.5559862811133</v>
       </c>
       <c r="N11" t="n">
-        <v>216.0393714015734</v>
+        <v>224.5094772670959</v>
       </c>
       <c r="O11" t="n">
-        <v>252.2953760529008</v>
+        <v>260.7654819184234</v>
       </c>
       <c r="P11" t="n">
-        <v>252.2953760529008</v>
+        <v>346.718972904406</v>
       </c>
       <c r="Q11" t="n">
-        <v>338.0066232220126</v>
+        <v>347.2868322665963</v>
       </c>
       <c r="R11" t="n">
         <v>347.2868322665963</v>
@@ -5069,22 +5069,22 @@
         <v>323.2969954304436</v>
       </c>
       <c r="T11" t="n">
-        <v>323.2969954304436</v>
+        <v>304.1823819404642</v>
       </c>
       <c r="U11" t="n">
-        <v>276.1651102830239</v>
+        <v>304.1823819404642</v>
       </c>
       <c r="V11" t="n">
-        <v>276.1651102830239</v>
+        <v>270.0418216957837</v>
       </c>
       <c r="W11" t="n">
-        <v>276.1651102830239</v>
+        <v>182.3431266789664</v>
       </c>
       <c r="X11" t="n">
-        <v>276.1651102830239</v>
+        <v>182.3431266789664</v>
       </c>
       <c r="Y11" t="n">
-        <v>188.4664152662067</v>
+        <v>94.64443166214917</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.945736645331927</v>
+        <v>48.42100778370963</v>
       </c>
       <c r="C12" t="n">
         <v>6.945736645331927</v>
@@ -5121,16 +5121,16 @@
         <v>6.945736645331927</v>
       </c>
       <c r="K12" t="n">
-        <v>6.945736645331927</v>
+        <v>45.9527684050891</v>
       </c>
       <c r="L12" t="n">
-        <v>92.89922763131452</v>
+        <v>90.52050120316879</v>
       </c>
       <c r="M12" t="n">
-        <v>92.89922763131452</v>
+        <v>176.4739921891514</v>
       </c>
       <c r="N12" t="n">
-        <v>176.4739921891514</v>
+        <v>262.4274831751339</v>
       </c>
       <c r="O12" t="n">
         <v>262.4274831751339</v>
@@ -5139,31 +5139,31 @@
         <v>347.2868322665963</v>
       </c>
       <c r="Q12" t="n">
-        <v>341.1897938556114</v>
+        <v>347.2868322665963</v>
       </c>
       <c r="R12" t="n">
-        <v>341.1897938556114</v>
+        <v>347.2868322665963</v>
       </c>
       <c r="S12" t="n">
-        <v>264.1730679520927</v>
+        <v>347.2868322665963</v>
       </c>
       <c r="T12" t="n">
-        <v>176.4743729352754</v>
+        <v>335.7155098607667</v>
       </c>
       <c r="U12" t="n">
-        <v>142.3949376303474</v>
+        <v>301.6360745558388</v>
       </c>
       <c r="V12" t="n">
-        <v>104.8596629912403</v>
+        <v>213.9373795390215</v>
       </c>
       <c r="W12" t="n">
-        <v>41.00553717879036</v>
+        <v>150.0832537265717</v>
       </c>
       <c r="X12" t="n">
-        <v>27.04198625274549</v>
+        <v>136.1197028005269</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.945736645331927</v>
+        <v>48.42100778370963</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.73009964911939</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="C13" t="n">
-        <v>10.73009964911939</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="D13" t="n">
-        <v>10.73009964911939</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="E13" t="n">
-        <v>71.92482888147597</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="F13" t="n">
-        <v>135.8413245176731</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="G13" t="n">
-        <v>135.8413245176731</v>
+        <v>41.39149724088471</v>
       </c>
       <c r="H13" t="n">
-        <v>135.8413245176731</v>
+        <v>41.39149724088471</v>
       </c>
       <c r="I13" t="n">
-        <v>135.8413245176731</v>
+        <v>41.39149724088471</v>
       </c>
       <c r="J13" t="n">
-        <v>135.8413245176731</v>
+        <v>49.88783353169013</v>
       </c>
       <c r="K13" t="n">
-        <v>135.8413245176731</v>
+        <v>49.88783353169013</v>
       </c>
       <c r="L13" t="n">
-        <v>135.8413245176731</v>
+        <v>135.8413245176727</v>
       </c>
       <c r="M13" t="n">
-        <v>135.8413245176731</v>
+        <v>221.7948155036553</v>
       </c>
       <c r="N13" t="n">
-        <v>221.7948155036557</v>
+        <v>307.7483064896379</v>
       </c>
       <c r="O13" t="n">
-        <v>307.7483064896383</v>
+        <v>307.7483064896379</v>
       </c>
       <c r="P13" t="n">
-        <v>307.7483064896383</v>
+        <v>307.7483064896379</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.7483064896383</v>
+        <v>307.7483064896379</v>
       </c>
       <c r="R13" t="n">
-        <v>307.7483064896383</v>
+        <v>307.7483064896379</v>
       </c>
       <c r="S13" t="n">
-        <v>275.5728947834235</v>
+        <v>275.5728947834232</v>
       </c>
       <c r="T13" t="n">
-        <v>255.1191849262502</v>
+        <v>255.1191849262499</v>
       </c>
       <c r="U13" t="n">
-        <v>169.091650186192</v>
+        <v>169.0916501861917</v>
       </c>
       <c r="V13" t="n">
-        <v>127.0512298207741</v>
+        <v>127.0512298207739</v>
       </c>
       <c r="W13" t="n">
-        <v>39.35253480395675</v>
+        <v>39.35253480395663</v>
       </c>
       <c r="X13" t="n">
-        <v>20.73591219228368</v>
+        <v>20.73591219228362</v>
       </c>
       <c r="Y13" t="n">
         <v>6.945736645331927</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>152.7748287429824</v>
+        <v>182.3431266789664</v>
       </c>
       <c r="C14" t="n">
-        <v>152.7748287429824</v>
+        <v>94.64443166214917</v>
       </c>
       <c r="D14" t="n">
-        <v>65.07613372616515</v>
+        <v>94.64443166214917</v>
       </c>
       <c r="E14" t="n">
-        <v>65.07613372616515</v>
+        <v>94.64443166214917</v>
       </c>
       <c r="F14" t="n">
-        <v>65.07613372616515</v>
+        <v>94.64443166214917</v>
       </c>
       <c r="G14" t="n">
-        <v>65.07613372616515</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="H14" t="n">
-        <v>44.37032839520599</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="I14" t="n">
         <v>6.945736645331927</v>
@@ -5279,49 +5279,49 @@
         <v>6.945736645331927</v>
       </c>
       <c r="K14" t="n">
-        <v>6.945736645331927</v>
+        <v>92.89922763131452</v>
       </c>
       <c r="L14" t="n">
-        <v>55.57291794545647</v>
+        <v>150.5643741591518</v>
       </c>
       <c r="M14" t="n">
-        <v>138.5559862811133</v>
+        <v>233.5474424948086</v>
       </c>
       <c r="N14" t="n">
-        <v>216.0393714015734</v>
+        <v>311.0308276152688</v>
       </c>
       <c r="O14" t="n">
-        <v>252.2953760529008</v>
+        <v>347.2868322665963</v>
       </c>
       <c r="P14" t="n">
-        <v>252.2953760529008</v>
+        <v>347.2868322665963</v>
       </c>
       <c r="Q14" t="n">
-        <v>338.0066232220125</v>
+        <v>347.2868322665963</v>
       </c>
       <c r="R14" t="n">
         <v>347.2868322665963</v>
       </c>
       <c r="S14" t="n">
-        <v>347.2868322665963</v>
+        <v>336.2883203331827</v>
       </c>
       <c r="T14" t="n">
-        <v>328.1722187766169</v>
+        <v>317.1737068432033</v>
       </c>
       <c r="U14" t="n">
-        <v>328.1722187766169</v>
+        <v>270.0418216957837</v>
       </c>
       <c r="V14" t="n">
-        <v>328.1722187766169</v>
+        <v>270.0418216957837</v>
       </c>
       <c r="W14" t="n">
-        <v>240.4735237597996</v>
+        <v>270.0418216957837</v>
       </c>
       <c r="X14" t="n">
-        <v>152.7748287429824</v>
+        <v>270.0418216957837</v>
       </c>
       <c r="Y14" t="n">
-        <v>152.7748287429824</v>
+        <v>270.0418216957837</v>
       </c>
     </row>
     <row r="15">
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>94.64443166214917</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="C15" t="n">
         <v>6.945736645331927</v>
@@ -5358,19 +5358,19 @@
         <v>6.945736645331927</v>
       </c>
       <c r="K15" t="n">
-        <v>6.945736645331927</v>
+        <v>45.9527684050891</v>
       </c>
       <c r="L15" t="n">
-        <v>6.945736645331927</v>
+        <v>131.9062593910717</v>
       </c>
       <c r="M15" t="n">
-        <v>90.52050120316879</v>
+        <v>217.8597503770542</v>
       </c>
       <c r="N15" t="n">
-        <v>176.4739921891514</v>
+        <v>261.3333412806138</v>
       </c>
       <c r="O15" t="n">
-        <v>262.4274831751339</v>
+        <v>347.2868322665963</v>
       </c>
       <c r="P15" t="n">
         <v>347.2868322665963</v>
@@ -5394,13 +5394,13 @@
         <v>264.1007999167317</v>
       </c>
       <c r="W15" t="n">
-        <v>200.2466741042819</v>
+        <v>176.4021048999145</v>
       </c>
       <c r="X15" t="n">
-        <v>186.283123178237</v>
+        <v>162.4385539738697</v>
       </c>
       <c r="Y15" t="n">
-        <v>166.1868735708235</v>
+        <v>74.73985895705241</v>
       </c>
     </row>
     <row r="16">
@@ -5410,52 +5410,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.5590942194729</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="C16" t="n">
-        <v>69.22059408967965</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="D16" t="n">
-        <v>69.22059408967965</v>
+        <v>64.6690219295877</v>
       </c>
       <c r="E16" t="n">
-        <v>69.22059408967965</v>
+        <v>64.6690219295877</v>
       </c>
       <c r="F16" t="n">
-        <v>69.22059408967965</v>
+        <v>128.5855175657849</v>
       </c>
       <c r="G16" t="n">
-        <v>103.6663546852324</v>
+        <v>128.5855175657849</v>
       </c>
       <c r="H16" t="n">
-        <v>141.002487572962</v>
+        <v>128.5855175657849</v>
       </c>
       <c r="I16" t="n">
-        <v>179.415114537619</v>
+        <v>128.5855175657849</v>
       </c>
       <c r="J16" t="n">
-        <v>179.415114537619</v>
+        <v>128.5855175657849</v>
       </c>
       <c r="K16" t="n">
-        <v>179.415114537619</v>
+        <v>214.5390085517675</v>
       </c>
       <c r="L16" t="n">
-        <v>179.415114537619</v>
+        <v>300.4924995377501</v>
       </c>
       <c r="M16" t="n">
-        <v>179.415114537619</v>
+        <v>300.4924995377501</v>
       </c>
       <c r="N16" t="n">
-        <v>221.7948155036553</v>
+        <v>300.4924995377501</v>
       </c>
       <c r="O16" t="n">
-        <v>307.7483064896379</v>
+        <v>300.4924995377501</v>
       </c>
       <c r="P16" t="n">
-        <v>307.7483064896379</v>
+        <v>300.4924995377501</v>
       </c>
       <c r="Q16" t="n">
-        <v>307.7483064896379</v>
+        <v>307.446212702537</v>
       </c>
       <c r="R16" t="n">
         <v>307.7483064896379</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>230.2616036014675</v>
+        <v>230.2616036014673</v>
       </c>
       <c r="C17" t="n">
-        <v>214.4472147160038</v>
+        <v>214.4472147160034</v>
       </c>
       <c r="D17" t="n">
-        <v>211.1917528395819</v>
+        <v>211.1917528395816</v>
       </c>
       <c r="E17" t="n">
-        <v>173.8890662970905</v>
+        <v>173.8890662970903</v>
       </c>
       <c r="F17" t="n">
-        <v>104.5456347259351</v>
+        <v>104.5456347259349</v>
       </c>
       <c r="G17" t="n">
         <v>19.41763633921494</v>
@@ -5519,31 +5519,31 @@
         <v>6.945736645331927</v>
       </c>
       <c r="L17" t="n">
-        <v>55.57291794545647</v>
+        <v>55.5729179454565</v>
       </c>
       <c r="M17" t="n">
         <v>138.5559862811133</v>
       </c>
       <c r="N17" t="n">
-        <v>216.0393714015734</v>
+        <v>216.0393714015735</v>
       </c>
       <c r="O17" t="n">
-        <v>252.2953760529008</v>
+        <v>252.295376052901</v>
       </c>
       <c r="P17" t="n">
-        <v>252.2953760529008</v>
+        <v>252.295376052901</v>
       </c>
       <c r="Q17" t="n">
-        <v>252.2953760529008</v>
+        <v>252.295376052901</v>
       </c>
       <c r="R17" t="n">
-        <v>252.2953760529008</v>
+        <v>252.295376052901</v>
       </c>
       <c r="S17" t="n">
-        <v>263.7311420713177</v>
+        <v>261.3333412806138</v>
       </c>
       <c r="T17" t="n">
-        <v>263.7311420713177</v>
+        <v>347.2868322665963</v>
       </c>
       <c r="U17" t="n">
         <v>347.2868322665963</v>
@@ -5552,13 +5552,13 @@
         <v>347.2868322665963</v>
       </c>
       <c r="W17" t="n">
-        <v>343.9058106088214</v>
+        <v>343.9058106088212</v>
       </c>
       <c r="X17" t="n">
-        <v>318.4174652450473</v>
+        <v>318.4174652450471</v>
       </c>
       <c r="Y17" t="n">
-        <v>270.1989652108248</v>
+        <v>270.1989652108246</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>94.64443166214917</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="C18" t="n">
-        <v>94.64443166214917</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="D18" t="n">
-        <v>94.64443166214917</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="E18" t="n">
-        <v>94.64443166214917</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="F18" t="n">
-        <v>94.64443166214917</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="G18" t="n">
-        <v>94.64443166214917</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="H18" t="n">
         <v>6.945736645331927</v>
@@ -5604,10 +5604,10 @@
         <v>178.8527186172971</v>
       </c>
       <c r="N18" t="n">
-        <v>261.3333412806138</v>
+        <v>264.8062096032797</v>
       </c>
       <c r="O18" t="n">
-        <v>347.2868322665963</v>
+        <v>264.8062096032797</v>
       </c>
       <c r="P18" t="n">
         <v>347.2868322665963</v>
@@ -5616,16 +5616,16 @@
         <v>347.2868322665963</v>
       </c>
       <c r="R18" t="n">
-        <v>270.0418216957837</v>
+        <v>259.588137249779</v>
       </c>
       <c r="S18" t="n">
-        <v>182.3431266789664</v>
+        <v>259.588137249779</v>
       </c>
       <c r="T18" t="n">
         <v>182.3431266789664</v>
       </c>
       <c r="U18" t="n">
-        <v>182.3431266789664</v>
+        <v>94.64443166214917</v>
       </c>
       <c r="V18" t="n">
         <v>94.64443166214917</v>
@@ -5729,16 +5729,16 @@
         <v>230.2616036014674</v>
       </c>
       <c r="C20" t="n">
-        <v>214.4472147160033</v>
+        <v>214.4472147160037</v>
       </c>
       <c r="D20" t="n">
-        <v>211.1917528395813</v>
+        <v>211.1917528395818</v>
       </c>
       <c r="E20" t="n">
-        <v>173.8890662970899</v>
+        <v>173.8890662970904</v>
       </c>
       <c r="F20" t="n">
-        <v>104.5456347259344</v>
+        <v>104.5456347259349</v>
       </c>
       <c r="G20" t="n">
         <v>19.41763633921471</v>
@@ -5747,40 +5747,40 @@
         <v>6.945736645331927</v>
       </c>
       <c r="I20" t="n">
-        <v>92.89922763131452</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="J20" t="n">
-        <v>101.9371928590274</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="K20" t="n">
-        <v>101.9371928590274</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="L20" t="n">
-        <v>150.5643741591519</v>
+        <v>55.5729179454565</v>
       </c>
       <c r="M20" t="n">
-        <v>233.5474424948087</v>
+        <v>138.5559862811133</v>
       </c>
       <c r="N20" t="n">
-        <v>311.0308276152689</v>
+        <v>216.0393714015735</v>
       </c>
       <c r="O20" t="n">
-        <v>347.2868322665963</v>
+        <v>252.295376052901</v>
       </c>
       <c r="P20" t="n">
-        <v>347.2868322665963</v>
+        <v>252.295376052901</v>
       </c>
       <c r="Q20" t="n">
-        <v>347.2868322665963</v>
+        <v>338.2488670388836</v>
       </c>
       <c r="R20" t="n">
-        <v>347.2868322665963</v>
+        <v>338.2488670388836</v>
       </c>
       <c r="S20" t="n">
-        <v>347.2868322665963</v>
+        <v>338.2488670388836</v>
       </c>
       <c r="T20" t="n">
-        <v>347.2868322665963</v>
+        <v>338.2488670388836</v>
       </c>
       <c r="U20" t="n">
         <v>347.2868322665963</v>
@@ -5795,7 +5795,7 @@
         <v>318.4174652450471</v>
       </c>
       <c r="Y20" t="n">
-        <v>270.1989652108246</v>
+        <v>270.1989652108247</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>6.945736645331927</v>
       </c>
       <c r="K21" t="n">
-        <v>6.945736645331927</v>
+        <v>45.9527684050891</v>
       </c>
       <c r="L21" t="n">
-        <v>92.89922763131452</v>
+        <v>45.9527684050891</v>
       </c>
       <c r="M21" t="n">
-        <v>178.8527186172971</v>
+        <v>131.9062593910717</v>
       </c>
       <c r="N21" t="n">
-        <v>261.3333412806138</v>
+        <v>176.4739921891514</v>
       </c>
       <c r="O21" t="n">
-        <v>347.2868322665963</v>
+        <v>262.4274831751339</v>
       </c>
       <c r="P21" t="n">
         <v>347.2868322665963</v>
@@ -5853,25 +5853,25 @@
         <v>341.1897938556114</v>
       </c>
       <c r="R21" t="n">
-        <v>341.1897938556114</v>
+        <v>253.4910988387941</v>
       </c>
       <c r="S21" t="n">
-        <v>341.1897938556114</v>
+        <v>165.7924038219768</v>
       </c>
       <c r="T21" t="n">
-        <v>341.1897938556114</v>
+        <v>165.7924038219768</v>
       </c>
       <c r="U21" t="n">
-        <v>341.1897938556114</v>
+        <v>94.64443166214917</v>
       </c>
       <c r="V21" t="n">
-        <v>253.4910988387941</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="W21" t="n">
-        <v>165.7924038219768</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="X21" t="n">
-        <v>78.09370880515959</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="Y21" t="n">
         <v>6.945736645331927</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>230.2616036014675</v>
+        <v>230.2616036014671</v>
       </c>
       <c r="C23" t="n">
-        <v>214.4472147160037</v>
+        <v>214.4472147160032</v>
       </c>
       <c r="D23" t="n">
-        <v>211.1917528395818</v>
+        <v>211.1917528395814</v>
       </c>
       <c r="E23" t="n">
-        <v>173.8890662970904</v>
+        <v>173.8890662970901</v>
       </c>
       <c r="F23" t="n">
-        <v>104.545634725935</v>
+        <v>104.5456347259347</v>
       </c>
       <c r="G23" t="n">
-        <v>19.41763633921471</v>
+        <v>19.4176363392147</v>
       </c>
       <c r="H23" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="I23" t="n">
-        <v>92.89922763131452</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="J23" t="n">
-        <v>101.9371928590274</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="K23" t="n">
-        <v>101.9371928590274</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="L23" t="n">
-        <v>150.5643741591519</v>
+        <v>55.5729179454565</v>
       </c>
       <c r="M23" t="n">
-        <v>233.5474424948087</v>
+        <v>138.5559862811133</v>
       </c>
       <c r="N23" t="n">
-        <v>311.0308276152689</v>
+        <v>224.5094772670958</v>
       </c>
       <c r="O23" t="n">
-        <v>347.2868322665963</v>
+        <v>260.7654819184233</v>
       </c>
       <c r="P23" t="n">
-        <v>347.2868322665963</v>
+        <v>260.7654819184233</v>
       </c>
       <c r="Q23" t="n">
-        <v>347.2868322665963</v>
+        <v>346.7189729044059</v>
       </c>
       <c r="R23" t="n">
-        <v>347.2868322665963</v>
+        <v>346.7189729044059</v>
       </c>
       <c r="S23" t="n">
-        <v>347.2868322665963</v>
+        <v>346.7189729044059</v>
       </c>
       <c r="T23" t="n">
-        <v>347.2868322665963</v>
+        <v>346.7189729044059</v>
       </c>
       <c r="U23" t="n">
-        <v>347.2868322665963</v>
+        <v>347.2868322665962</v>
       </c>
       <c r="V23" t="n">
-        <v>347.2868322665963</v>
+        <v>347.2868322665962</v>
       </c>
       <c r="W23" t="n">
-        <v>343.9058106088214</v>
+        <v>343.905810608821</v>
       </c>
       <c r="X23" t="n">
-        <v>318.4174652450472</v>
+        <v>318.4174652450469</v>
       </c>
       <c r="Y23" t="n">
-        <v>270.1989652108247</v>
+        <v>270.1989652108244</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>147.026601048242</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="C24" t="n">
-        <v>59.3279060314247</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="D24" t="n">
-        <v>59.3279060314247</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="E24" t="n">
-        <v>59.3279060314247</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="F24" t="n">
-        <v>59.3279060314247</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="G24" t="n">
-        <v>59.3279060314247</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="H24" t="n">
-        <v>59.3279060314247</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="I24" t="n">
-        <v>59.3279060314247</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="J24" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="K24" t="n">
-        <v>6.945736645331927</v>
+        <v>45.95276840508909</v>
       </c>
       <c r="L24" t="n">
-        <v>92.89922763131452</v>
+        <v>131.9062593910716</v>
       </c>
       <c r="M24" t="n">
-        <v>178.8527186172971</v>
+        <v>176.4739921891512</v>
       </c>
       <c r="N24" t="n">
-        <v>261.3333412806138</v>
+        <v>262.4274831751337</v>
       </c>
       <c r="O24" t="n">
-        <v>347.2868322665963</v>
+        <v>262.4274831751337</v>
       </c>
       <c r="P24" t="n">
-        <v>347.2868322665963</v>
+        <v>347.2868322665962</v>
       </c>
       <c r="Q24" t="n">
-        <v>341.1897938556114</v>
+        <v>341.1897938556112</v>
       </c>
       <c r="R24" t="n">
-        <v>253.4910988387941</v>
+        <v>341.1897938556112</v>
       </c>
       <c r="S24" t="n">
-        <v>234.7252960650592</v>
+        <v>253.491098838794</v>
       </c>
       <c r="T24" t="n">
-        <v>234.7252960650592</v>
+        <v>182.3431266789663</v>
       </c>
       <c r="U24" t="n">
-        <v>234.7252960650592</v>
+        <v>182.3431266789663</v>
       </c>
       <c r="V24" t="n">
-        <v>234.7252960650592</v>
+        <v>182.3431266789663</v>
       </c>
       <c r="W24" t="n">
-        <v>234.7252960650592</v>
+        <v>182.3431266789663</v>
       </c>
       <c r="X24" t="n">
-        <v>234.7252960650592</v>
+        <v>94.64443166214913</v>
       </c>
       <c r="Y24" t="n">
-        <v>234.7252960650592</v>
+        <v>6.945736645331923</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="C25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="D25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="E25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="F25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="G25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="H25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="I25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="J25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="K25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="L25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="M25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="N25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="O25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="P25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="R25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="S25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="T25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="U25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="V25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="W25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="X25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1025.028630475681</v>
+        <v>1025.028630475682</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2749037794681</v>
+        <v>886.2749037794686</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0801040922968</v>
+        <v>760.0801040922972</v>
       </c>
       <c r="E26" t="n">
-        <v>599.838079739056</v>
+        <v>599.8380797390564</v>
       </c>
       <c r="F26" t="n">
-        <v>407.555310357151</v>
+        <v>407.5553103571515</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4879741596823</v>
+        <v>199.4879741596824</v>
       </c>
       <c r="H26" t="n">
-        <v>64.0767366550501</v>
+        <v>64.07673665505006</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="J26" t="n">
-        <v>171.8193014227422</v>
+        <v>171.8193014227423</v>
       </c>
       <c r="K26" t="n">
-        <v>377.4069368927941</v>
+        <v>377.4069368927942</v>
       </c>
       <c r="L26" t="n">
-        <v>636.7450330653271</v>
+        <v>636.7450330653272</v>
       </c>
       <c r="M26" t="n">
-        <v>930.4390162733923</v>
+        <v>930.4390162733926</v>
       </c>
       <c r="N26" t="n">
         <v>1218.633316266261</v>
@@ -6251,16 +6251,16 @@
         <v>1804.845069967966</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.299989625996</v>
+        <v>1790.299989625997</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.6301326302</v>
+        <v>1780.630132630201</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.943003976964</v>
+        <v>1742.943003976965</v>
       </c>
       <c r="V26" t="n">
-        <v>1633.811210383808</v>
+        <v>1633.811210383809</v>
       </c>
       <c r="W26" t="n">
         <v>1507.490850915284</v>
@@ -6269,7 +6269,7 @@
         <v>1359.06316774076</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.905329895788</v>
+        <v>1187.905329895789</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>247.4288826161127</v>
+        <v>47.92828577016856</v>
       </c>
       <c r="C27" t="n">
-        <v>196.5246176821152</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="D27" t="n">
-        <v>196.5246176821152</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="E27" t="n">
-        <v>196.5246176821152</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="F27" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="G27" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="H27" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="K27" t="n">
-        <v>75.10393315911648</v>
+        <v>75.10393315911649</v>
       </c>
       <c r="L27" t="n">
-        <v>193.8402434614216</v>
+        <v>193.8402434614217</v>
       </c>
       <c r="M27" t="n">
-        <v>377.1545813717193</v>
+        <v>377.1545813717194</v>
       </c>
       <c r="N27" t="n">
-        <v>583.7405939045457</v>
+        <v>583.7405939045458</v>
       </c>
       <c r="O27" t="n">
-        <v>716.9793531582077</v>
+        <v>716.9793531582078</v>
       </c>
       <c r="P27" t="n">
-        <v>801.8387022496701</v>
+        <v>801.8387022496702</v>
       </c>
       <c r="Q27" t="n">
-        <v>801.8387022496701</v>
+        <v>795.7416638386852</v>
       </c>
       <c r="R27" t="n">
-        <v>801.8387022496701</v>
+        <v>795.7416638386852</v>
       </c>
       <c r="S27" t="n">
-        <v>801.8387022496701</v>
+        <v>602.3381054037258</v>
       </c>
       <c r="T27" t="n">
-        <v>799.7121363380237</v>
+        <v>385.2223395406373</v>
       </c>
       <c r="U27" t="n">
-        <v>560.0882575758369</v>
+        <v>145.5984607784505</v>
       </c>
       <c r="V27" t="n">
-        <v>317.008539479471</v>
+        <v>117.5079426335267</v>
       </c>
       <c r="W27" t="n">
-        <v>262.5991701612044</v>
+        <v>63.09857331526022</v>
       </c>
       <c r="X27" t="n">
-        <v>258.0803757293429</v>
+        <v>58.57977888339874</v>
       </c>
       <c r="Y27" t="n">
-        <v>247.4288826161127</v>
+        <v>47.92828577016856</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="E28" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="F28" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="G28" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="H28" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="I28" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="J28" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="K28" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="L28" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="M28" t="n">
-        <v>36.09690139935932</v>
+        <v>222.6925318052329</v>
       </c>
       <c r="N28" t="n">
-        <v>185.5663313513471</v>
+        <v>222.6925318052329</v>
       </c>
       <c r="O28" t="n">
-        <v>185.5663313513471</v>
+        <v>270.786175784382</v>
       </c>
       <c r="P28" t="n">
-        <v>185.5663313513471</v>
+        <v>270.786175784382</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.7861757843824</v>
+        <v>270.786175784382</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7861757843824</v>
+        <v>270.786175784382</v>
       </c>
       <c r="S28" t="n">
-        <v>248.0555205723509</v>
+        <v>248.0555205723506</v>
       </c>
       <c r="T28" t="n">
-        <v>237.046567209361</v>
+        <v>237.0465672093607</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4637889634861</v>
+        <v>160.4637889634858</v>
       </c>
       <c r="V28" t="n">
-        <v>127.8681250922515</v>
+        <v>127.8681250922513</v>
       </c>
       <c r="W28" t="n">
-        <v>49.61418656961749</v>
+        <v>49.61418656961737</v>
       </c>
       <c r="X28" t="n">
-        <v>40.44232045212774</v>
+        <v>40.44232045212769</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
     </row>
     <row r="29">
@@ -6440,25 +6440,25 @@
         <v>1025.028630475681</v>
       </c>
       <c r="C29" t="n">
-        <v>886.2749037794679</v>
+        <v>886.2749037794681</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0801040922967</v>
+        <v>760.0801040922969</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8380797390558</v>
+        <v>599.8380797390561</v>
       </c>
       <c r="F29" t="n">
-        <v>407.555310357151</v>
+        <v>407.5553103571513</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4879741596819</v>
+        <v>199.4879741596822</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07673665505004</v>
+        <v>64.07673665505006</v>
       </c>
       <c r="I29" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="J29" t="n">
         <v>171.8193014227423</v>
@@ -6473,7 +6473,7 @@
         <v>930.4390162733926</v>
       </c>
       <c r="N29" t="n">
-        <v>1218.633316266262</v>
+        <v>1218.633316266261</v>
       </c>
       <c r="O29" t="n">
         <v>1465.600235789997</v>
@@ -6488,7 +6488,7 @@
         <v>1804.845069967966</v>
       </c>
       <c r="S29" t="n">
-        <v>1790.299989625996</v>
+        <v>1790.299989625997</v>
       </c>
       <c r="T29" t="n">
         <v>1780.6301326302</v>
@@ -6500,7 +6500,7 @@
         <v>1633.811210383808</v>
       </c>
       <c r="W29" t="n">
-        <v>1507.490850915283</v>
+        <v>1507.490850915284</v>
       </c>
       <c r="X29" t="n">
         <v>1359.06316774076</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>530.867937799669</v>
+        <v>84.38163279467568</v>
       </c>
       <c r="C30" t="n">
-        <v>530.867937799669</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="D30" t="n">
-        <v>370.0878215607008</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="E30" t="n">
-        <v>196.5246176821152</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="F30" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="G30" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="H30" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="I30" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="J30" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="K30" t="n">
-        <v>75.10393315911648</v>
+        <v>75.10393315911649</v>
       </c>
       <c r="L30" t="n">
-        <v>193.8402434614216</v>
+        <v>193.8402434614217</v>
       </c>
       <c r="M30" t="n">
-        <v>377.1545813717193</v>
+        <v>377.1545813717194</v>
       </c>
       <c r="N30" t="n">
-        <v>583.7405939045457</v>
+        <v>583.7405939045458</v>
       </c>
       <c r="O30" t="n">
-        <v>716.9793531582077</v>
+        <v>716.9793531582078</v>
       </c>
       <c r="P30" t="n">
-        <v>801.8387022496701</v>
+        <v>801.8387022496702</v>
       </c>
       <c r="Q30" t="n">
-        <v>801.8387022496701</v>
+        <v>795.7416638386852</v>
       </c>
       <c r="R30" t="n">
-        <v>801.8387022496701</v>
+        <v>795.7416638386852</v>
       </c>
       <c r="S30" t="n">
-        <v>801.8387022496701</v>
+        <v>602.3381054037258</v>
       </c>
       <c r="T30" t="n">
-        <v>653.1727916186956</v>
+        <v>385.2223395406373</v>
       </c>
       <c r="U30" t="n">
-        <v>628.5381128079509</v>
+        <v>360.5876607298927</v>
       </c>
       <c r="V30" t="n">
-        <v>600.4475946630272</v>
+        <v>332.4971425849689</v>
       </c>
       <c r="W30" t="n">
-        <v>546.0382253447607</v>
+        <v>278.0877732667024</v>
       </c>
       <c r="X30" t="n">
-        <v>541.5194309128992</v>
+        <v>273.5689788348409</v>
       </c>
       <c r="Y30" t="n">
-        <v>530.867937799669</v>
+        <v>262.9174857216108</v>
       </c>
     </row>
     <row r="31">
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="C31" t="n">
-        <v>36.09690139935932</v>
+        <v>82.01520710951516</v>
       </c>
       <c r="D31" t="n">
-        <v>36.09690139935932</v>
+        <v>82.01520710951516</v>
       </c>
       <c r="E31" t="n">
-        <v>106.548436471665</v>
+        <v>82.01520710951516</v>
       </c>
       <c r="F31" t="n">
-        <v>179.7217379478113</v>
+        <v>82.01520710951516</v>
       </c>
       <c r="G31" t="n">
-        <v>223.4243043833132</v>
+        <v>82.01520710951516</v>
       </c>
       <c r="H31" t="n">
-        <v>270.0172431109918</v>
+        <v>82.01520710951516</v>
       </c>
       <c r="I31" t="n">
-        <v>270.0172431109918</v>
+        <v>82.01520710951516</v>
       </c>
       <c r="J31" t="n">
-        <v>270.0172431109918</v>
+        <v>82.01520710951516</v>
       </c>
       <c r="K31" t="n">
-        <v>270.0172431109918</v>
+        <v>226.9960008227814</v>
       </c>
       <c r="L31" t="n">
-        <v>270.0172431109918</v>
+        <v>226.9960008227814</v>
       </c>
       <c r="M31" t="n">
-        <v>270.0172431109918</v>
+        <v>226.9960008227814</v>
       </c>
       <c r="N31" t="n">
-        <v>270.0172431109918</v>
+        <v>270.786175784382</v>
       </c>
       <c r="O31" t="n">
         <v>270.786175784382</v>
@@ -6661,10 +6661,10 @@
         <v>49.61418656961737</v>
       </c>
       <c r="X31" t="n">
-        <v>40.44232045212768</v>
+        <v>40.44232045212769</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
     </row>
     <row r="32">
@@ -6677,37 +6677,37 @@
         <v>1025.028630475682</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2749037794691</v>
+        <v>886.274903779469</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0801040922979</v>
+        <v>760.0801040922978</v>
       </c>
       <c r="E32" t="n">
         <v>599.8380797390571</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5553103571523</v>
+        <v>407.5553103571524</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4879741596831</v>
+        <v>199.4879741596833</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07673665505104</v>
+        <v>64.07673665504997</v>
       </c>
       <c r="I32" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8193014227422</v>
+        <v>171.819301422742</v>
       </c>
       <c r="K32" t="n">
-        <v>377.4069368927944</v>
+        <v>377.406936892794</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7450330653276</v>
+        <v>636.7450330653269</v>
       </c>
       <c r="M32" t="n">
-        <v>930.4390162733928</v>
+        <v>930.4390162733923</v>
       </c>
       <c r="N32" t="n">
         <v>1218.633316266261</v>
@@ -6740,7 +6740,7 @@
         <v>1507.490850915284</v>
       </c>
       <c r="X32" t="n">
-        <v>1359.063167740761</v>
+        <v>1359.06316774076</v>
       </c>
       <c r="Y32" t="n">
         <v>1187.905329895789</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>196.8770176383276</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="C33" t="n">
-        <v>196.8770176383276</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="D33" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="E33" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="F33" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="G33" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="H33" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="I33" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="J33" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="K33" t="n">
-        <v>75.10393315911648</v>
+        <v>75.10393315911649</v>
       </c>
       <c r="L33" t="n">
-        <v>193.8402434614216</v>
+        <v>193.8402434614217</v>
       </c>
       <c r="M33" t="n">
-        <v>377.1545813717193</v>
+        <v>377.1545813717194</v>
       </c>
       <c r="N33" t="n">
-        <v>583.7405939045457</v>
+        <v>583.7405939045458</v>
       </c>
       <c r="O33" t="n">
-        <v>716.9793531582077</v>
+        <v>716.9793531582078</v>
       </c>
       <c r="P33" t="n">
-        <v>801.8387022496701</v>
+        <v>801.8387022496702</v>
       </c>
       <c r="Q33" t="n">
-        <v>801.8387022496701</v>
+        <v>795.7416638386852</v>
       </c>
       <c r="R33" t="n">
-        <v>801.8387022496701</v>
+        <v>795.7416638386852</v>
       </c>
       <c r="S33" t="n">
-        <v>801.8387022496701</v>
+        <v>795.7416638386852</v>
       </c>
       <c r="T33" t="n">
-        <v>799.7121363380238</v>
+        <v>793.615097927039</v>
       </c>
       <c r="U33" t="n">
-        <v>775.0774575272793</v>
+        <v>768.9804191162945</v>
       </c>
       <c r="V33" t="n">
-        <v>746.9869393823557</v>
+        <v>525.9007010199285</v>
       </c>
       <c r="W33" t="n">
-        <v>477.588370112647</v>
+        <v>256.5021317502199</v>
       </c>
       <c r="X33" t="n">
-        <v>386.0643636784928</v>
+        <v>251.9833373183585</v>
       </c>
       <c r="Y33" t="n">
-        <v>375.4128705652627</v>
+        <v>36.09690139935933</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="C34" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="D34" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="E34" t="n">
-        <v>106.5484364716651</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="F34" t="n">
-        <v>179.7217379478114</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="G34" t="n">
-        <v>223.4243043833134</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="H34" t="n">
-        <v>223.4243043833134</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="I34" t="n">
-        <v>270.7861757843815</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="J34" t="n">
-        <v>270.7861757843815</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="K34" t="n">
-        <v>270.7861757843815</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="L34" t="n">
-        <v>270.7861757843815</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="M34" t="n">
-        <v>270.7861757843815</v>
+        <v>222.692531805233</v>
       </c>
       <c r="N34" t="n">
-        <v>270.7861757843815</v>
+        <v>261.2272761573313</v>
       </c>
       <c r="O34" t="n">
-        <v>270.7861757843815</v>
+        <v>261.2272761573313</v>
       </c>
       <c r="P34" t="n">
-        <v>270.7861757843815</v>
+        <v>261.2272761573313</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.7861757843815</v>
+        <v>261.2272761573313</v>
       </c>
       <c r="R34" t="n">
-        <v>270.7861757843815</v>
+        <v>270.7861757843813</v>
       </c>
       <c r="S34" t="n">
-        <v>248.0555205723502</v>
+        <v>248.0555205723501</v>
       </c>
       <c r="T34" t="n">
-        <v>237.0465672093604</v>
+        <v>237.0465672093603</v>
       </c>
       <c r="U34" t="n">
-        <v>160.4637889634856</v>
+        <v>160.4637889634855</v>
       </c>
       <c r="V34" t="n">
-        <v>127.8681250922511</v>
+        <v>127.868125092251</v>
       </c>
       <c r="W34" t="n">
-        <v>49.61418656961725</v>
+        <v>49.6141865696172</v>
       </c>
       <c r="X34" t="n">
-        <v>40.44232045212762</v>
+        <v>40.4423204521276</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.09690139935932</v>
+        <v>36.09690139935933</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>847.8611162930815</v>
+        <v>847.8611162930804</v>
       </c>
       <c r="C35" t="n">
-        <v>733.4247863879065</v>
+        <v>733.4247863879053</v>
       </c>
       <c r="D35" t="n">
-        <v>631.5473834917736</v>
+        <v>631.5473834917724</v>
       </c>
       <c r="E35" t="n">
-        <v>495.6227559295713</v>
+        <v>495.6227559295699</v>
       </c>
       <c r="F35" t="n">
-        <v>327.6573833387049</v>
+        <v>327.6573833387034</v>
       </c>
       <c r="G35" t="n">
-        <v>143.9074439322742</v>
+        <v>143.9074439322726</v>
       </c>
       <c r="H35" t="n">
-        <v>32.81360321867968</v>
+        <v>32.8136032186798</v>
       </c>
       <c r="I35" t="n">
         <v>29.15116475402739</v>
@@ -6938,37 +6938,37 @@
         <v>188.7070453723071</v>
       </c>
       <c r="K35" t="n">
-        <v>418.1281614372558</v>
+        <v>418.1281614372556</v>
       </c>
       <c r="L35" t="n">
-        <v>466.7553427373803</v>
+        <v>466.7553427373801</v>
       </c>
       <c r="M35" t="n">
-        <v>549.7384110730371</v>
+        <v>784.2828065403421</v>
       </c>
       <c r="N35" t="n">
-        <v>861.7661916608025</v>
+        <v>861.7661916608023</v>
       </c>
       <c r="O35" t="n">
         <v>1132.566591779435</v>
       </c>
       <c r="P35" t="n">
-        <v>1244.219544643156</v>
+        <v>1353.90707578893</v>
       </c>
       <c r="Q35" t="n">
-        <v>1391.25384111689</v>
+        <v>1405.609894870208</v>
       </c>
       <c r="R35" t="n">
-        <v>1433.62433659632</v>
+        <v>1447.980390349637</v>
       </c>
       <c r="S35" t="n">
-        <v>1443.202183948052</v>
+        <v>1457.55823770137</v>
       </c>
       <c r="T35" t="n">
         <v>1457.55823770137</v>
       </c>
       <c r="U35" t="n">
-        <v>1444.188505839172</v>
+        <v>1444.188505839171</v>
       </c>
       <c r="V35" t="n">
         <v>1359.374109037054</v>
@@ -6977,10 +6977,10 @@
         <v>1257.371146359568</v>
       </c>
       <c r="X35" t="n">
-        <v>1133.260859976083</v>
+        <v>1133.260859976082</v>
       </c>
       <c r="Y35" t="n">
-        <v>986.4204189221498</v>
+        <v>986.4204189221488</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>477.1237753756355</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="C36" t="n">
-        <v>477.1237753756355</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="D36" t="n">
-        <v>477.1237753756355</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="E36" t="n">
-        <v>477.1237753756355</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="F36" t="n">
-        <v>316.6960590928796</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="G36" t="n">
-        <v>316.6960590928796</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="H36" t="n">
-        <v>189.7541694881793</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="I36" t="n">
-        <v>81.53333414012016</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="J36" t="n">
         <v>29.15116475402739</v>
       </c>
       <c r="K36" t="n">
-        <v>68.15819651378455</v>
+        <v>68.15819651378456</v>
       </c>
       <c r="L36" t="n">
         <v>186.8945068160897</v>
@@ -7035,31 +7035,31 @@
         <v>794.8929656043382</v>
       </c>
       <c r="Q36" t="n">
-        <v>794.8929656043382</v>
+        <v>788.7959271933532</v>
       </c>
       <c r="R36" t="n">
-        <v>794.8929656043382</v>
+        <v>788.7959271933532</v>
       </c>
       <c r="S36" t="n">
-        <v>601.4894071693788</v>
+        <v>788.7959271933532</v>
       </c>
       <c r="T36" t="n">
-        <v>601.4894071693788</v>
+        <v>571.6801613302648</v>
       </c>
       <c r="U36" t="n">
-        <v>601.1721251496726</v>
+        <v>571.3628793105585</v>
       </c>
       <c r="V36" t="n">
-        <v>597.3990037957873</v>
+        <v>328.2831612141925</v>
       </c>
       <c r="W36" t="n">
-        <v>477.1237753756355</v>
+        <v>248.659159137331</v>
       </c>
       <c r="X36" t="n">
-        <v>477.1237753756355</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="Y36" t="n">
-        <v>477.1237753756355</v>
+        <v>29.15116475402739</v>
       </c>
     </row>
     <row r="37">
@@ -7108,28 +7108,28 @@
         <v>29.15116475402739</v>
       </c>
       <c r="O37" t="n">
-        <v>143.6313550206554</v>
+        <v>142.076189599071</v>
       </c>
       <c r="P37" t="n">
-        <v>143.6313550206554</v>
+        <v>142.076189599071</v>
       </c>
       <c r="Q37" t="n">
-        <v>143.6313550206554</v>
+        <v>142.076189599071</v>
       </c>
       <c r="R37" t="n">
-        <v>143.6313550206554</v>
+        <v>142.076189599071</v>
       </c>
       <c r="S37" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="T37" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="U37" t="n">
-        <v>91.36597356581895</v>
+        <v>91.36597356581919</v>
       </c>
       <c r="V37" t="n">
-        <v>83.08770648562287</v>
+        <v>83.087706485623</v>
       </c>
       <c r="W37" t="n">
         <v>29.15116475402739</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>847.8611162930806</v>
+        <v>847.8611162930807</v>
       </c>
       <c r="C38" t="n">
         <v>733.4247863879059</v>
@@ -7157,67 +7157,67 @@
         <v>631.547383491773</v>
       </c>
       <c r="E38" t="n">
-        <v>495.6227559295704</v>
+        <v>495.6227559295705</v>
       </c>
       <c r="F38" t="n">
-        <v>327.657383338704</v>
+        <v>327.6573833387044</v>
       </c>
       <c r="G38" t="n">
-        <v>143.9074439322733</v>
+        <v>143.9074439322735</v>
       </c>
       <c r="H38" t="n">
-        <v>32.81360321867967</v>
+        <v>32.8136032186798</v>
       </c>
       <c r="I38" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="J38" t="n">
-        <v>188.7070453723071</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="K38" t="n">
-        <v>418.1281614372558</v>
+        <v>258.572280818976</v>
       </c>
       <c r="L38" t="n">
-        <v>591.6122070589108</v>
+        <v>541.7438575864057</v>
       </c>
       <c r="M38" t="n">
-        <v>674.5952753945676</v>
+        <v>859.2713213893677</v>
       </c>
       <c r="N38" t="n">
-        <v>986.623055982333</v>
+        <v>986.6230559823344</v>
       </c>
       <c r="O38" t="n">
-        <v>1022.87906063366</v>
+        <v>1022.879060633662</v>
       </c>
       <c r="P38" t="n">
-        <v>1244.219544643156</v>
+        <v>1244.219544643157</v>
       </c>
       <c r="Q38" t="n">
-        <v>1391.25384111689</v>
+        <v>1391.253841116891</v>
       </c>
       <c r="R38" t="n">
-        <v>1433.624336596319</v>
+        <v>1433.62433659632</v>
       </c>
       <c r="S38" t="n">
-        <v>1443.202183948052</v>
+        <v>1443.202183948053</v>
       </c>
       <c r="T38" t="n">
-        <v>1457.558237701369</v>
+        <v>1457.55823770137</v>
       </c>
       <c r="U38" t="n">
-        <v>1444.188505839171</v>
+        <v>1444.188505839172</v>
       </c>
       <c r="V38" t="n">
-        <v>1359.374109037053</v>
+        <v>1359.374109037054</v>
       </c>
       <c r="W38" t="n">
         <v>1257.371146359568</v>
       </c>
       <c r="X38" t="n">
-        <v>1133.260859976082</v>
+        <v>1133.260859976083</v>
       </c>
       <c r="Y38" t="n">
-        <v>986.4204189221489</v>
+        <v>986.4204189221491</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>760.7105897035186</v>
+        <v>202.7143686326129</v>
       </c>
       <c r="C39" t="n">
-        <v>571.2983154364823</v>
+        <v>202.7143686326129</v>
       </c>
       <c r="D39" t="n">
-        <v>410.518199197514</v>
+        <v>202.7143686326129</v>
       </c>
       <c r="E39" t="n">
-        <v>236.9549953189285</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="F39" t="n">
-        <v>76.52727903617259</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="G39" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="H39" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="I39" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="J39" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="K39" t="n">
-        <v>68.15819651378453</v>
+        <v>68.15819651378456</v>
       </c>
       <c r="L39" t="n">
         <v>186.8945068160897</v>
@@ -7281,22 +7281,22 @@
         <v>794.8929656043382</v>
       </c>
       <c r="T39" t="n">
-        <v>794.8929656043382</v>
+        <v>577.7771997412497</v>
       </c>
       <c r="U39" t="n">
-        <v>794.5756835846321</v>
+        <v>577.4599177215433</v>
       </c>
       <c r="V39" t="n">
-        <v>790.8025622307467</v>
+        <v>334.3801996251774</v>
       </c>
       <c r="W39" t="n">
-        <v>760.7105897035186</v>
+        <v>304.2882270979492</v>
       </c>
       <c r="X39" t="n">
-        <v>760.7105897035186</v>
+        <v>304.2882270979492</v>
       </c>
       <c r="Y39" t="n">
-        <v>760.7105897035186</v>
+        <v>202.7143686326129</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>73.8795687156028</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="C40" t="n">
-        <v>143.6313550206554</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="D40" t="n">
-        <v>143.6313550206554</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="E40" t="n">
-        <v>143.6313550206554</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="F40" t="n">
-        <v>143.6313550206554</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="G40" t="n">
-        <v>143.6313550206554</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="H40" t="n">
-        <v>143.6313550206554</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="I40" t="n">
-        <v>143.6313550206554</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="J40" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="K40" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="L40" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="M40" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="N40" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="O40" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="P40" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="Q40" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="R40" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="S40" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="T40" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="U40" t="n">
-        <v>91.36597356581895</v>
+        <v>91.36597356581919</v>
       </c>
       <c r="V40" t="n">
-        <v>83.08770648562287</v>
+        <v>83.087706485623</v>
       </c>
       <c r="W40" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="X40" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
     </row>
     <row r="41">
@@ -7385,64 +7385,64 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>847.8611162930808</v>
+        <v>847.8611162930811</v>
       </c>
       <c r="C41" t="n">
         <v>733.4247863879059</v>
       </c>
       <c r="D41" t="n">
-        <v>631.5473834917731</v>
+        <v>631.547383491773</v>
       </c>
       <c r="E41" t="n">
-        <v>495.6227559295708</v>
+        <v>495.6227559295705</v>
       </c>
       <c r="F41" t="n">
-        <v>327.6573833387044</v>
+        <v>327.6573833387041</v>
       </c>
       <c r="G41" t="n">
         <v>143.9074439322733</v>
       </c>
       <c r="H41" t="n">
-        <v>32.81360321867964</v>
+        <v>32.81360321867977</v>
       </c>
       <c r="I41" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="J41" t="n">
-        <v>188.7070453723071</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="K41" t="n">
-        <v>418.1281614372558</v>
+        <v>258.572280818976</v>
       </c>
       <c r="L41" t="n">
-        <v>466.7553427373804</v>
+        <v>357.0678115916071</v>
       </c>
       <c r="M41" t="n">
-        <v>674.595275394567</v>
+        <v>674.5952753945691</v>
       </c>
       <c r="N41" t="n">
-        <v>752.0786605150272</v>
+        <v>752.0786605150292</v>
       </c>
       <c r="O41" t="n">
-        <v>1022.87906063366</v>
+        <v>1022.879060633662</v>
       </c>
       <c r="P41" t="n">
-        <v>1244.219544643155</v>
+        <v>1244.219544643157</v>
       </c>
       <c r="Q41" t="n">
-        <v>1391.253841116889</v>
+        <v>1391.253841116891</v>
       </c>
       <c r="R41" t="n">
-        <v>1433.624336596319</v>
+        <v>1433.62433659632</v>
       </c>
       <c r="S41" t="n">
-        <v>1443.202183948052</v>
+        <v>1443.202183948053</v>
       </c>
       <c r="T41" t="n">
-        <v>1457.558237701369</v>
+        <v>1457.55823770137</v>
       </c>
       <c r="U41" t="n">
-        <v>1444.188505839171</v>
+        <v>1444.188505839172</v>
       </c>
       <c r="V41" t="n">
         <v>1359.374109037054</v>
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>179.3916452947409</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="C42" t="n">
-        <v>179.3916452947409</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="D42" t="n">
-        <v>179.3916452947409</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="E42" t="n">
-        <v>179.3916452947409</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="F42" t="n">
-        <v>179.3916452947409</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="G42" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="H42" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="I42" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="J42" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="K42" t="n">
-        <v>68.15819651378453</v>
+        <v>68.15819651378456</v>
       </c>
       <c r="L42" t="n">
         <v>186.8945068160897</v>
@@ -7512,28 +7512,28 @@
         <v>794.8929656043382</v>
       </c>
       <c r="R42" t="n">
-        <v>794.8929656043382</v>
+        <v>659.2218077712264</v>
       </c>
       <c r="S42" t="n">
-        <v>794.8929656043382</v>
+        <v>519.7559032604163</v>
       </c>
       <c r="T42" t="n">
-        <v>794.8929656043382</v>
+        <v>302.6401373973277</v>
       </c>
       <c r="U42" t="n">
-        <v>555.2690868421514</v>
+        <v>302.3228553776215</v>
       </c>
       <c r="V42" t="n">
-        <v>312.1893687457855</v>
+        <v>298.5497340237361</v>
       </c>
       <c r="W42" t="n">
-        <v>179.3916452947409</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="X42" t="n">
-        <v>179.3916452947409</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="Y42" t="n">
-        <v>179.3916452947409</v>
+        <v>29.15116475402739</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="C43" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="D43" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="E43" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="F43" t="n">
-        <v>29.15116475402738</v>
+        <v>34.57802999272373</v>
       </c>
       <c r="G43" t="n">
-        <v>29.15116475402738</v>
+        <v>34.57802999272373</v>
       </c>
       <c r="H43" t="n">
-        <v>29.15116475402738</v>
+        <v>34.57802999272373</v>
       </c>
       <c r="I43" t="n">
-        <v>29.15116475402738</v>
+        <v>34.57802999272373</v>
       </c>
       <c r="J43" t="n">
-        <v>34.57802999272324</v>
+        <v>34.57802999272373</v>
       </c>
       <c r="K43" t="n">
-        <v>34.57802999272324</v>
+        <v>34.57802999272373</v>
       </c>
       <c r="L43" t="n">
-        <v>34.57802999272324</v>
+        <v>34.57802999272373</v>
       </c>
       <c r="M43" t="n">
-        <v>34.57802999272324</v>
+        <v>34.57802999272373</v>
       </c>
       <c r="N43" t="n">
-        <v>34.57802999272324</v>
+        <v>34.57802999272373</v>
       </c>
       <c r="O43" t="n">
-        <v>34.57802999272324</v>
+        <v>34.57802999272373</v>
       </c>
       <c r="P43" t="n">
-        <v>34.57802999272324</v>
+        <v>34.57802999272373</v>
       </c>
       <c r="Q43" t="n">
-        <v>143.6313550206553</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="R43" t="n">
-        <v>143.6313550206553</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="S43" t="n">
-        <v>143.6313550206553</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="T43" t="n">
-        <v>143.6313550206553</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="U43" t="n">
-        <v>91.36597356581889</v>
+        <v>91.36597356581913</v>
       </c>
       <c r="V43" t="n">
-        <v>83.08770648562285</v>
+        <v>83.08770648562297</v>
       </c>
       <c r="W43" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="X43" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>847.8611162930802</v>
+        <v>847.861116293081</v>
       </c>
       <c r="C44" t="n">
-        <v>733.4247863879054</v>
+        <v>733.4247863879064</v>
       </c>
       <c r="D44" t="n">
-        <v>631.5473834917725</v>
+        <v>631.5473834917732</v>
       </c>
       <c r="E44" t="n">
-        <v>495.62275592957</v>
+        <v>495.6227559295705</v>
       </c>
       <c r="F44" t="n">
-        <v>327.6573833387035</v>
+        <v>327.6573833387041</v>
       </c>
       <c r="G44" t="n">
-        <v>143.9074439322728</v>
+        <v>143.9074439322733</v>
       </c>
       <c r="H44" t="n">
-        <v>32.81360321867972</v>
+        <v>32.81360321867977</v>
       </c>
       <c r="I44" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="J44" t="n">
         <v>188.7070453723071</v>
@@ -7652,46 +7652,46 @@
         <v>418.1281614372556</v>
       </c>
       <c r="L44" t="n">
-        <v>701.2997382046854</v>
+        <v>466.7553427373802</v>
       </c>
       <c r="M44" t="n">
         <v>784.2828065403421</v>
       </c>
       <c r="N44" t="n">
-        <v>986.6230559823333</v>
+        <v>1096.310587128107</v>
       </c>
       <c r="O44" t="n">
-        <v>1022.879060633661</v>
+        <v>1244.219544643157</v>
       </c>
       <c r="P44" t="n">
-        <v>1244.219544643156</v>
+        <v>1244.219544643157</v>
       </c>
       <c r="Q44" t="n">
-        <v>1391.25384111689</v>
+        <v>1391.253841116891</v>
       </c>
       <c r="R44" t="n">
-        <v>1433.624336596319</v>
+        <v>1433.62433659632</v>
       </c>
       <c r="S44" t="n">
-        <v>1443.202183948052</v>
+        <v>1443.202183948053</v>
       </c>
       <c r="T44" t="n">
-        <v>1457.558237701369</v>
+        <v>1457.55823770137</v>
       </c>
       <c r="U44" t="n">
-        <v>1444.188505839171</v>
+        <v>1444.188505839172</v>
       </c>
       <c r="V44" t="n">
-        <v>1359.374109037053</v>
+        <v>1359.374109037054</v>
       </c>
       <c r="W44" t="n">
-        <v>1257.371146359567</v>
+        <v>1257.371146359568</v>
       </c>
       <c r="X44" t="n">
-        <v>1133.260859976082</v>
+        <v>1133.260859976083</v>
       </c>
       <c r="Y44" t="n">
-        <v>986.4204189221484</v>
+        <v>986.4204189221492</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>76.25530551306196</v>
+        <v>179.391645294741</v>
       </c>
       <c r="C45" t="n">
-        <v>29.15116475402738</v>
+        <v>179.391645294741</v>
       </c>
       <c r="D45" t="n">
-        <v>29.15116475402738</v>
+        <v>179.391645294741</v>
       </c>
       <c r="E45" t="n">
-        <v>29.15116475402738</v>
+        <v>179.391645294741</v>
       </c>
       <c r="F45" t="n">
-        <v>29.15116475402738</v>
+        <v>179.391645294741</v>
       </c>
       <c r="G45" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="H45" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="I45" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="J45" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="K45" t="n">
-        <v>68.15819651378453</v>
+        <v>68.15819651378456</v>
       </c>
       <c r="L45" t="n">
         <v>186.8945068160897</v>
@@ -7746,31 +7746,31 @@
         <v>794.8929656043382</v>
       </c>
       <c r="Q45" t="n">
-        <v>794.8929656043382</v>
+        <v>788.7959271933532</v>
       </c>
       <c r="R45" t="n">
-        <v>794.8929656043382</v>
+        <v>788.7959271933532</v>
       </c>
       <c r="S45" t="n">
-        <v>794.8929656043382</v>
+        <v>595.3923687583938</v>
       </c>
       <c r="T45" t="n">
-        <v>794.8929656043382</v>
+        <v>595.3923687583938</v>
       </c>
       <c r="U45" t="n">
-        <v>794.575683584632</v>
+        <v>595.0750867386876</v>
       </c>
       <c r="V45" t="n">
-        <v>790.8025622307466</v>
+        <v>591.3019653848022</v>
       </c>
       <c r="W45" t="n">
-        <v>521.4039929610379</v>
+        <v>321.9033961150935</v>
       </c>
       <c r="X45" t="n">
-        <v>301.8959985777343</v>
+        <v>321.9033961150935</v>
       </c>
       <c r="Y45" t="n">
-        <v>76.25530551306196</v>
+        <v>321.9033961150935</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="C46" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="D46" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="E46" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="F46" t="n">
-        <v>126.1579468250704</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="G46" t="n">
-        <v>126.1579468250704</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="H46" t="n">
-        <v>126.1579468250704</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="I46" t="n">
-        <v>126.1579468250704</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="J46" t="n">
-        <v>126.1579468250704</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="K46" t="n">
-        <v>126.1579468250704</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="L46" t="n">
-        <v>126.1579468250704</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="M46" t="n">
-        <v>126.1579468250704</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="N46" t="n">
-        <v>126.1579468250704</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="O46" t="n">
-        <v>143.6313550206556</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="P46" t="n">
-        <v>143.6313550206556</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="Q46" t="n">
-        <v>143.6313550206556</v>
+        <v>138.2044897819594</v>
       </c>
       <c r="R46" t="n">
-        <v>143.6313550206556</v>
+        <v>142.0761895990709</v>
       </c>
       <c r="S46" t="n">
-        <v>143.6313550206556</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="T46" t="n">
-        <v>143.6313550206556</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="U46" t="n">
-        <v>91.36597356581906</v>
+        <v>91.36597356581913</v>
       </c>
       <c r="V46" t="n">
-        <v>83.08770648562293</v>
+        <v>83.08770648562297</v>
       </c>
       <c r="W46" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="X46" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
     </row>
   </sheetData>
@@ -8769,19 +8769,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>131.9724314025781</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>207.1905848512652</v>
+        <v>165.3867887018683</v>
       </c>
       <c r="M12" t="n">
-        <v>116.6108834208104</v>
+        <v>203.4325914874595</v>
       </c>
       <c r="N12" t="n">
-        <v>186.3600727412999</v>
+        <v>188.7628267091238</v>
       </c>
       <c r="O12" t="n">
-        <v>207.4598856512406</v>
+        <v>120.6381775845915</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9006,22 +9006,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>131.9724314025781</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>120.3688767846161</v>
+        <v>207.1905848512652</v>
       </c>
       <c r="M15" t="n">
-        <v>201.0298375196355</v>
+        <v>203.4325914874595</v>
       </c>
       <c r="N15" t="n">
-        <v>188.7628267091238</v>
+        <v>145.8538367268783</v>
       </c>
       <c r="O15" t="n">
-        <v>207.4598856512406</v>
+        <v>207.4598856512405</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786793</v>
+        <v>120.6473598448789</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9252,13 +9252,13 @@
         <v>203.4325914874595</v>
       </c>
       <c r="N18" t="n">
-        <v>185.2548789084511</v>
+        <v>188.7628267091238</v>
       </c>
       <c r="O18" t="n">
-        <v>207.4598856512406</v>
+        <v>120.6381775845915</v>
       </c>
       <c r="P18" t="n">
-        <v>120.6473598448789</v>
+        <v>203.9611201108553</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9480,22 +9480,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>131.9724314025781</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>207.1905848512652</v>
+        <v>120.3688767846161</v>
       </c>
       <c r="M21" t="n">
         <v>203.4325914874595</v>
       </c>
       <c r="N21" t="n">
-        <v>185.2548789084511</v>
+        <v>146.959030559727</v>
       </c>
       <c r="O21" t="n">
-        <v>207.4598856512406</v>
+        <v>207.4598856512405</v>
       </c>
       <c r="P21" t="n">
-        <v>120.6473598448789</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>131.9724314025781</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
         <v>207.1905848512652</v>
       </c>
       <c r="M24" t="n">
-        <v>203.4325914874595</v>
+        <v>161.6287953380625</v>
       </c>
       <c r="N24" t="n">
-        <v>185.2548789084511</v>
+        <v>188.7628267091238</v>
       </c>
       <c r="O24" t="n">
-        <v>207.4598856512406</v>
+        <v>120.6381775845915</v>
       </c>
       <c r="P24" t="n">
-        <v>120.6473598448789</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>114.7648234195058</v>
+        <v>83.776533288498</v>
       </c>
       <c r="C11" t="n">
         <v>146.7164983584926</v>
       </c>
       <c r="D11" t="n">
-        <v>134.2831606195411</v>
+        <v>134.283160619541</v>
       </c>
       <c r="E11" t="n">
-        <v>167.98991303895</v>
+        <v>167.9899130389499</v>
       </c>
       <c r="F11" t="n">
-        <v>199.7102506173273</v>
+        <v>199.7102506173272</v>
       </c>
       <c r="G11" t="n">
-        <v>215.336971764736</v>
+        <v>215.3369717647359</v>
       </c>
       <c r="H11" t="n">
-        <v>56.58572599217828</v>
+        <v>143.4074340588273</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>37.05034583237531</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>18.92346735507965</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>46.66056629594539</v>
       </c>
       <c r="V11" t="n">
-        <v>117.3907845864658</v>
+        <v>83.59162994423204</v>
       </c>
       <c r="W11" t="n">
-        <v>134.4074648030807</v>
+        <v>47.58575673643156</v>
       </c>
       <c r="X11" t="n">
         <v>156.2937152720199</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.97486032911462</v>
+        <v>91.97486032911456</v>
       </c>
     </row>
     <row r="12">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>170.5982413551471</v>
+        <v>83.776533288498</v>
       </c>
       <c r="C14" t="n">
-        <v>146.7164983584926</v>
+        <v>59.89479029184349</v>
       </c>
       <c r="D14" t="n">
-        <v>47.46145255289196</v>
+        <v>134.283160619541</v>
       </c>
       <c r="E14" t="n">
         <v>167.9899130389499</v>
@@ -23507,13 +23507,13 @@
         <v>199.7102506173272</v>
       </c>
       <c r="G14" t="n">
-        <v>215.3369717647359</v>
+        <v>128.5152636980868</v>
       </c>
       <c r="H14" t="n">
-        <v>122.9086867811778</v>
+        <v>143.4074340588273</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>37.05034583237531</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>23.74993846779112</v>
+        <v>12.86141165371164</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>46.66056629594539</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>117.3907845864658</v>
       </c>
       <c r="W14" t="n">
-        <v>47.58575673643156</v>
+        <v>134.4074648030806</v>
       </c>
       <c r="X14" t="n">
-        <v>69.4720072053708</v>
+        <v>156.2937152720199</v>
       </c>
       <c r="Y14" t="n">
         <v>178.7965683957636</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.593480985524366e-13</v>
+        <v>-2.629008122312371e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>2.255973186038318e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>705545.5961411678</v>
+        <v>705545.5961411677</v>
       </c>
       <c r="C2" t="n">
         <v>705545.5961411677</v>
       </c>
       <c r="D2" t="n">
-        <v>705545.5961411678</v>
+        <v>705545.5961411677</v>
       </c>
       <c r="E2" t="n">
         <v>607992.071216383</v>
       </c>
       <c r="F2" t="n">
-        <v>607992.0712163829</v>
+        <v>607992.071216383</v>
       </c>
       <c r="G2" t="n">
-        <v>706974.8390868282</v>
+        <v>706974.8390868281</v>
       </c>
       <c r="H2" t="n">
+        <v>706974.8390868281</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706974.8390868279</v>
+      </c>
+      <c r="J2" t="n">
         <v>706974.8390868278</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706974.8390868278</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706974.8390868275</v>
       </c>
       <c r="K2" t="n">
         <v>706974.8390868275</v>
       </c>
       <c r="L2" t="n">
-        <v>706974.8390868279</v>
+        <v>706974.8390868281</v>
       </c>
       <c r="M2" t="n">
-        <v>706974.8390868284</v>
+        <v>706974.8390868283</v>
       </c>
       <c r="N2" t="n">
-        <v>706974.8390868284</v>
+        <v>706974.8390868285</v>
       </c>
       <c r="O2" t="n">
-        <v>706974.8390868282</v>
+        <v>706974.8390868283</v>
       </c>
       <c r="P2" t="n">
-        <v>706974.8390868285</v>
+        <v>706974.8390868286</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>272434.2066155724</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>104848.2026895067</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>160763.5855583197</v>
+        <v>160763.5855583198</v>
       </c>
       <c r="K3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>104848.2026895068</v>
       </c>
       <c r="M3" t="n">
-        <v>19259.3782585024</v>
+        <v>19259.37825850229</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65423.24367203542</v>
+        <v>65423.2436720355</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,16 +26427,16 @@
         <v>372146.5274278299</v>
       </c>
       <c r="F4" t="n">
-        <v>372146.5274278299</v>
+        <v>372146.52742783</v>
       </c>
       <c r="G4" t="n">
         <v>442672.8937875655</v>
       </c>
       <c r="H4" t="n">
+        <v>442672.8937875656</v>
+      </c>
+      <c r="I4" t="n">
         <v>442672.8937875655</v>
-      </c>
-      <c r="I4" t="n">
-        <v>442672.8937875656</v>
       </c>
       <c r="J4" t="n">
         <v>442256.8076974518</v>
@@ -26448,7 +26448,7 @@
         <v>442256.8076974518</v>
       </c>
       <c r="M4" t="n">
-        <v>441867.4728269803</v>
+        <v>441867.4728269802</v>
       </c>
       <c r="N4" t="n">
         <v>441867.4728269802</v>
@@ -26457,7 +26457,7 @@
         <v>441867.4728269802</v>
       </c>
       <c r="P4" t="n">
-        <v>441867.4728269803</v>
+        <v>441867.4728269802</v>
       </c>
     </row>
     <row r="5">
@@ -26491,25 +26491,25 @@
         <v>35675.68646773272</v>
       </c>
       <c r="J5" t="n">
-        <v>47598.53836228576</v>
+        <v>47598.53836228578</v>
       </c>
       <c r="K5" t="n">
-        <v>47598.53836228577</v>
+        <v>47598.53836228578</v>
       </c>
       <c r="L5" t="n">
         <v>47598.53836228578</v>
       </c>
       <c r="M5" t="n">
-        <v>44343.67435035107</v>
+        <v>44343.67435035105</v>
       </c>
       <c r="N5" t="n">
         <v>44343.67435035105</v>
       </c>
       <c r="O5" t="n">
-        <v>44343.67435035105</v>
+        <v>44343.67435035106</v>
       </c>
       <c r="P5" t="n">
-        <v>44343.67435035104</v>
+        <v>44343.67435035106</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194087.3326108925</v>
+        <v>194082.8662266872</v>
       </c>
       <c r="C6" t="n">
-        <v>194087.3326108923</v>
+        <v>194082.8662266872</v>
       </c>
       <c r="D6" t="n">
-        <v>194087.3326108925</v>
+        <v>194082.8662266872</v>
       </c>
       <c r="E6" t="n">
-        <v>-61246.24485487184</v>
+        <v>-61555.56600446704</v>
       </c>
       <c r="F6" t="n">
-        <v>211187.9617607004</v>
+        <v>210878.6406111053</v>
       </c>
       <c r="G6" t="n">
-        <v>123778.0561420232</v>
+        <v>123778.0561420231</v>
       </c>
       <c r="H6" t="n">
-        <v>228626.2588315296</v>
+        <v>228626.2588315298</v>
       </c>
       <c r="I6" t="n">
-        <v>228626.2588315295</v>
+        <v>228626.2588315297</v>
       </c>
       <c r="J6" t="n">
-        <v>56355.90746877022</v>
+        <v>56355.90746877044</v>
       </c>
       <c r="K6" t="n">
-        <v>217119.4930270898</v>
+        <v>217119.4930270899</v>
       </c>
       <c r="L6" t="n">
-        <v>112271.2903375837</v>
+        <v>112271.2903375836</v>
       </c>
       <c r="M6" t="n">
         <v>201504.3136509947</v>
       </c>
       <c r="N6" t="n">
-        <v>220763.6919094971</v>
+        <v>220763.6919094973</v>
       </c>
       <c r="O6" t="n">
-        <v>155340.4482374616</v>
+        <v>155340.4482374615</v>
       </c>
       <c r="P6" t="n">
-        <v>220763.6919094972</v>
+        <v>220763.6919094974</v>
       </c>
     </row>
   </sheetData>
@@ -26716,13 +26716,13 @@
         <v>212.8393079519278</v>
       </c>
       <c r="M2" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="N2" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="O2" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="P2" t="n">
         <v>236.9135307750557</v>
@@ -26808,7 +26808,7 @@
         <v>86.82170806664908</v>
       </c>
       <c r="I4" t="n">
-        <v>86.82170806664908</v>
+        <v>86.82170806664904</v>
       </c>
       <c r="J4" t="n">
         <v>451.2112674919915</v>
@@ -26823,13 +26823,13 @@
         <v>364.3895594253424</v>
       </c>
       <c r="N4" t="n">
-        <v>364.3895594253422</v>
+        <v>364.3895594253424</v>
       </c>
       <c r="O4" t="n">
-        <v>364.3895594253422</v>
+        <v>364.3895594253424</v>
       </c>
       <c r="P4" t="n">
-        <v>364.3895594253422</v>
+        <v>364.3895594253424</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>203.4889990226862</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>131.0602533618834</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.77905459004424</v>
+        <v>81.77905459004435</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.0602533618834</v>
+        <v>131.0602533618835</v>
       </c>
       <c r="M2" t="n">
-        <v>24.074222823128</v>
+        <v>24.07422282312785</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.77905459004427</v>
+        <v>81.77905459004438</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>364.3895594253424</v>
+        <v>364.3895594253425</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>203.4889990226862</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>131.0602533618834</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.77905459004424</v>
+        <v>81.77905459004435</v>
       </c>
       <c r="P2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28111,10 +28111,10 @@
         <v>203.4889990226862</v>
       </c>
       <c r="J11" t="n">
-        <v>75.74597459497525</v>
+        <v>75.74597459497524</v>
       </c>
       <c r="K11" t="n">
-        <v>5.175029699350084</v>
+        <v>5.175029699350063</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,19 +28123,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>8.555662490426656</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.33728430081827</v>
+        <v>100.1589923674673</v>
       </c>
       <c r="Q11" t="n">
-        <v>174.9710567299828</v>
+        <v>88.96763470278948</v>
       </c>
       <c r="R11" t="n">
-        <v>203.4889990226862</v>
+        <v>194.1150504928036</v>
       </c>
       <c r="S11" t="n">
         <v>203.4889990226862</v>
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>146.457633097372</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28190,7 +28190,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J12" t="n">
-        <v>51.85834769223185</v>
+        <v>51.85834769223183</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,22 +28211,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.036068026875125</v>
       </c>
       <c r="R12" t="n">
         <v>134.3144462547807</v>
       </c>
       <c r="S12" t="n">
-        <v>115.2229642061264</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T12" t="n">
-        <v>128.1229001378085</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="U12" t="n">
         <v>203.4889990226862</v>
       </c>
       <c r="V12" t="n">
-        <v>203.4889990226862</v>
+        <v>153.8272128487532</v>
       </c>
       <c r="W12" t="n">
         <v>203.4889990226862</v>
@@ -28235,7 +28235,7 @@
         <v>203.4889990226862</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.4889990226862</v>
+        <v>136.5625780673765</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>181.4395095576827</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
@@ -28254,13 +28254,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
+        <v>141.676141212225</v>
+      </c>
+      <c r="F13" t="n">
+        <v>138.9268822184467</v>
+      </c>
+      <c r="G13" t="n">
         <v>203.4889990226862</v>
-      </c>
-      <c r="F13" t="n">
-        <v>203.4889990226862</v>
-      </c>
-      <c r="G13" t="n">
-        <v>168.6953014514208</v>
       </c>
       <c r="H13" t="n">
         <v>165.7757334795251</v>
@@ -28269,22 +28269,22 @@
         <v>164.6883657250528</v>
       </c>
       <c r="J13" t="n">
-        <v>119.8526328486804</v>
+        <v>128.4347907181808</v>
       </c>
       <c r="K13" t="n">
-        <v>66.39406177691131</v>
+        <v>66.3940617769113</v>
       </c>
       <c r="L13" t="n">
-        <v>31.33805968349145</v>
+        <v>118.1597677501405</v>
       </c>
       <c r="M13" t="n">
-        <v>24.35887319852012</v>
+        <v>111.1805812651692</v>
       </c>
       <c r="N13" t="n">
         <v>102.5042743723751</v>
       </c>
       <c r="O13" t="n">
-        <v>123.5269411491905</v>
+        <v>36.70523308254135</v>
       </c>
       <c r="P13" t="n">
         <v>57.81660688993937</v>
@@ -28348,13 +28348,13 @@
         <v>203.4889990226862</v>
       </c>
       <c r="J14" t="n">
-        <v>75.74597459497525</v>
+        <v>75.74597459497524</v>
       </c>
       <c r="K14" t="n">
-        <v>5.175029699350084</v>
+        <v>91.99673776599914</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>9.12925780577045</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -28366,13 +28366,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.33728430081827</v>
+        <v>13.33728430081824</v>
       </c>
       <c r="Q14" t="n">
-        <v>174.9710567299828</v>
+        <v>88.3940393874457</v>
       </c>
       <c r="R14" t="n">
-        <v>203.4889990226862</v>
+        <v>194.1150504928036</v>
       </c>
       <c r="S14" t="n">
         <v>203.4889990226862</v>
@@ -28403,10 +28403,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>105.9234769080781</v>
+        <v>109.6343133090625</v>
       </c>
       <c r="C15" t="n">
-        <v>100.6964434577168</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28427,7 +28427,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J15" t="n">
-        <v>51.85834769223185</v>
+        <v>51.85834769223183</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.036068026875139</v>
+        <v>6.036068026875125</v>
       </c>
       <c r="R15" t="n">
         <v>134.3144462547807</v>
@@ -28466,13 +28466,13 @@
         <v>203.4889990226862</v>
       </c>
       <c r="W15" t="n">
-        <v>203.4889990226862</v>
+        <v>179.8828755103625</v>
       </c>
       <c r="X15" t="n">
         <v>203.4889990226862</v>
       </c>
       <c r="Y15" t="n">
-        <v>203.4889990226862</v>
+        <v>136.5625780673765</v>
       </c>
     </row>
     <row r="16">
@@ -28482,55 +28482,55 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>177.6169206649681</v>
+      </c>
+      <c r="C16" t="n">
+        <v>166.4571809719723</v>
+      </c>
+      <c r="D16" t="n">
         <v>203.4889990226862</v>
-      </c>
-      <c r="C16" t="n">
-        <v>203.4889990226862</v>
-      </c>
-      <c r="D16" t="n">
-        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="G16" t="n">
-        <v>203.4889990226862</v>
+        <v>168.6953014514208</v>
       </c>
       <c r="H16" t="n">
-        <v>203.4889990226862</v>
+        <v>165.7757334795251</v>
       </c>
       <c r="I16" t="n">
-        <v>203.4889990226862</v>
+        <v>164.6883657250528</v>
       </c>
       <c r="J16" t="n">
         <v>119.8526328486804</v>
       </c>
       <c r="K16" t="n">
-        <v>66.39406177691131</v>
+        <v>153.2157698435604</v>
       </c>
       <c r="L16" t="n">
-        <v>31.33805968349145</v>
+        <v>118.1597677501405</v>
       </c>
       <c r="M16" t="n">
-        <v>24.35887319852012</v>
+        <v>24.35887319852011</v>
       </c>
       <c r="N16" t="n">
-        <v>58.49034505929799</v>
+        <v>15.68256630572602</v>
       </c>
       <c r="O16" t="n">
-        <v>123.5269411491905</v>
+        <v>36.70523308254135</v>
       </c>
       <c r="P16" t="n">
         <v>57.81660688993937</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.7586570094679</v>
+        <v>133.7826097011719</v>
       </c>
       <c r="R16" t="n">
-        <v>203.1838537831904</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="S16" t="n">
         <v>203.4889990226862</v>
@@ -28585,10 +28585,10 @@
         <v>240.5393448550616</v>
       </c>
       <c r="J17" t="n">
-        <v>75.74597459497525</v>
+        <v>75.74597459497524</v>
       </c>
       <c r="K17" t="n">
-        <v>5.175029699350084</v>
+        <v>5.175029699350063</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,7 +28603,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.33728430081827</v>
+        <v>13.33728430081824</v>
       </c>
       <c r="Q17" t="n">
         <v>88.3940393874457</v>
@@ -28612,13 +28612,13 @@
         <v>194.1150504928036</v>
       </c>
       <c r="S17" t="n">
-        <v>238.790216296959</v>
+        <v>236.3681952962478</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4124663777658</v>
+        <v>309.2341744444149</v>
       </c>
       <c r="U17" t="n">
-        <v>334.5492523845696</v>
+        <v>250.1495653186316</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>89.92878633101665</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -28658,13 +28658,13 @@
         <v>148.7380757353064</v>
       </c>
       <c r="H18" t="n">
-        <v>38.85076264200426</v>
+        <v>125.6724707086533</v>
       </c>
       <c r="I18" t="n">
         <v>107.1386269945785</v>
       </c>
       <c r="J18" t="n">
-        <v>51.85834769223185</v>
+        <v>51.85834769223183</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,22 +28685,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.036068026875139</v>
+        <v>6.036068026875125</v>
       </c>
       <c r="R18" t="n">
-        <v>57.8418857896762</v>
+        <v>47.4927381881316</v>
       </c>
       <c r="S18" t="n">
-        <v>104.6478147839608</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9446082044576</v>
+        <v>138.4720477393531</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2276399745649</v>
+        <v>150.4059319079158</v>
       </c>
       <c r="V18" t="n">
-        <v>153.8272128487532</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28746,19 +28746,19 @@
         <v>119.8526328486804</v>
       </c>
       <c r="K19" t="n">
-        <v>66.39406177691131</v>
+        <v>66.3940617769113</v>
       </c>
       <c r="L19" t="n">
-        <v>31.33805968349145</v>
+        <v>31.33805968349144</v>
       </c>
       <c r="M19" t="n">
-        <v>24.35887319852012</v>
+        <v>24.35887319852011</v>
       </c>
       <c r="N19" t="n">
-        <v>15.68256630572603</v>
+        <v>15.68256630572602</v>
       </c>
       <c r="O19" t="n">
-        <v>36.70523308254137</v>
+        <v>36.70523308254135</v>
       </c>
       <c r="P19" t="n">
         <v>57.81660688993937</v>
@@ -28819,13 +28819,13 @@
         <v>334.5492523845696</v>
       </c>
       <c r="I20" t="n">
-        <v>327.3610529217107</v>
+        <v>240.5393448550616</v>
       </c>
       <c r="J20" t="n">
-        <v>84.87523240074582</v>
+        <v>75.74597459497524</v>
       </c>
       <c r="K20" t="n">
-        <v>5.175029699350084</v>
+        <v>5.175029699350063</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,10 +28840,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.33728430081827</v>
+        <v>13.33728430081824</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.3940393874457</v>
+        <v>175.2157474540948</v>
       </c>
       <c r="R20" t="n">
         <v>194.1150504928036</v>
@@ -28855,7 +28855,7 @@
         <v>222.4124663777658</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1495653186316</v>
+        <v>259.278823124402</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -28901,7 +28901,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J21" t="n">
-        <v>51.85834769223185</v>
+        <v>51.85834769223183</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>134.3144462547807</v>
+        <v>47.4927381881316</v>
       </c>
       <c r="S21" t="n">
-        <v>191.4695228506099</v>
+        <v>104.6478147839608</v>
       </c>
       <c r="T21" t="n">
         <v>214.9446082044576</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2276399745649</v>
+        <v>166.7911475363355</v>
       </c>
       <c r="V21" t="n">
         <v>153.8272128487532</v>
       </c>
       <c r="W21" t="n">
-        <v>179.8828755103625</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>130.4912063728215</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>152.9477936957962</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -28983,19 +28983,19 @@
         <v>119.8526328486804</v>
       </c>
       <c r="K22" t="n">
-        <v>66.39406177691131</v>
+        <v>66.3940617769113</v>
       </c>
       <c r="L22" t="n">
-        <v>31.33805968349145</v>
+        <v>31.33805968349144</v>
       </c>
       <c r="M22" t="n">
-        <v>24.35887319852012</v>
+        <v>24.35887319852011</v>
       </c>
       <c r="N22" t="n">
-        <v>15.68256630572603</v>
+        <v>15.68256630572602</v>
       </c>
       <c r="O22" t="n">
-        <v>36.70523308254137</v>
+        <v>36.70523308254135</v>
       </c>
       <c r="P22" t="n">
         <v>57.81660688993937</v>
@@ -29056,13 +29056,13 @@
         <v>334.5492523845696</v>
       </c>
       <c r="I23" t="n">
-        <v>327.3610529217107</v>
+        <v>240.5393448550616</v>
       </c>
       <c r="J23" t="n">
-        <v>84.87523240074582</v>
+        <v>75.74597459497524</v>
       </c>
       <c r="K23" t="n">
-        <v>5.175029699350084</v>
+        <v>5.175029699350063</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29071,16 +29071,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>8.555662490426613</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.33728430081827</v>
+        <v>13.33728430081824</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.3940393874457</v>
+        <v>175.2157474540948</v>
       </c>
       <c r="R23" t="n">
         <v>194.1150504928036</v>
@@ -29092,7 +29092,7 @@
         <v>222.4124663777658</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1495653186316</v>
+        <v>250.7231606339754</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -29114,10 +29114,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>89.92878633101665</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>100.6964434577168</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
@@ -29138,7 +29138,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.85834769223183</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29162,13 +29162,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>47.4927381881316</v>
+        <v>134.3144462547807</v>
       </c>
       <c r="S24" t="n">
-        <v>172.8913781046123</v>
+        <v>104.6478147839608</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9446082044576</v>
+        <v>144.5081157662282</v>
       </c>
       <c r="U24" t="n">
         <v>237.2276399745649</v>
@@ -29180,10 +29180,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>130.4912063728216</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>136.5625780673766</v>
       </c>
     </row>
     <row r="25">
@@ -29220,19 +29220,19 @@
         <v>119.8526328486804</v>
       </c>
       <c r="K25" t="n">
-        <v>66.39406177691131</v>
+        <v>66.3940617769113</v>
       </c>
       <c r="L25" t="n">
-        <v>31.33805968349145</v>
+        <v>31.33805968349144</v>
       </c>
       <c r="M25" t="n">
-        <v>24.35887319852012</v>
+        <v>24.35887319852011</v>
       </c>
       <c r="N25" t="n">
-        <v>15.68256630572603</v>
+        <v>15.68256630572602</v>
       </c>
       <c r="O25" t="n">
-        <v>36.70523308254137</v>
+        <v>36.70523308254135</v>
       </c>
       <c r="P25" t="n">
         <v>57.81660688993937</v>
@@ -29311,13 +29311,13 @@
         <v>212.8393079519277</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8393079519284</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="P26" t="n">
         <v>212.8393079519277</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519281</v>
       </c>
       <c r="R26" t="n">
         <v>212.8393079519277</v>
@@ -29354,7 +29354,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>137.1229292397085</v>
+        <v>175.8050809972648</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29363,7 +29363,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7380757353064</v>
@@ -29375,7 +29375,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J27" t="n">
-        <v>51.85834769223185</v>
+        <v>51.85834769223183</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,22 +29396,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.036068026875139</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>134.3144462547807</v>
       </c>
       <c r="S27" t="n">
-        <v>191.4695228506099</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
         <v>212.8393079519277</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>212.8393079519277</v>
@@ -29457,25 +29457,25 @@
         <v>119.8526328486804</v>
       </c>
       <c r="K28" t="n">
-        <v>66.39406177691131</v>
+        <v>66.3940617769113</v>
       </c>
       <c r="L28" t="n">
-        <v>31.33805968349145</v>
+        <v>31.33805968349144</v>
       </c>
       <c r="M28" t="n">
-        <v>24.35887319852012</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="N28" t="n">
-        <v>166.6617884794511</v>
+        <v>15.68256630572602</v>
       </c>
       <c r="O28" t="n">
-        <v>36.70523308254137</v>
+        <v>85.28467144531817</v>
       </c>
       <c r="P28" t="n">
         <v>57.81660688993937</v>
       </c>
       <c r="Q28" t="n">
-        <v>212.8393079519277</v>
+        <v>126.7586570094679</v>
       </c>
       <c r="R28" t="n">
         <v>203.1838537831904</v>
@@ -29545,13 +29545,13 @@
         <v>212.8393079519277</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8393079519281</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="O29" t="n">
         <v>212.8393079519277</v>
       </c>
       <c r="P29" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519281</v>
       </c>
       <c r="Q29" t="n">
         <v>212.8393079519277</v>
@@ -29588,19 +29588,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>139.7162674430027</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7380757353064</v>
@@ -29612,7 +29612,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J30" t="n">
-        <v>51.85834769223185</v>
+        <v>51.85834769223183</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,16 +29633,16 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.036068026875139</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.3144462547807</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4695228506099</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>67.76535667979283</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>212.8393079519277</v>
@@ -29670,22 +29670,22 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>166.4571809719723</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="D31" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>212.8393079519277</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>212.8393079519277</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>212.8393079519277</v>
+        <v>168.6953014514208</v>
       </c>
       <c r="H31" t="n">
-        <v>212.8393079519277</v>
+        <v>165.7757334795251</v>
       </c>
       <c r="I31" t="n">
         <v>164.6883657250528</v>
@@ -29694,19 +29694,19 @@
         <v>119.8526328486804</v>
       </c>
       <c r="K31" t="n">
-        <v>66.39406177691131</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="L31" t="n">
-        <v>31.33805968349145</v>
+        <v>31.33805968349144</v>
       </c>
       <c r="M31" t="n">
-        <v>24.35887319852012</v>
+        <v>24.35887319852011</v>
       </c>
       <c r="N31" t="n">
-        <v>15.68256630572603</v>
+        <v>59.91506626693867</v>
       </c>
       <c r="O31" t="n">
-        <v>37.48193275263239</v>
+        <v>36.70523308254135</v>
       </c>
       <c r="P31" t="n">
         <v>57.81660688993937</v>
@@ -29825,13 +29825,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
@@ -29849,7 +29849,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J33" t="n">
-        <v>51.85834769223185</v>
+        <v>51.85834769223183</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.036068026875139</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>134.3144462547807</v>
@@ -29885,16 +29885,16 @@
         <v>212.8393079519278</v>
       </c>
       <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
         <v>212.8393079519278</v>
       </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>126.7041480696579</v>
-      </c>
       <c r="Y33" t="n">
-        <v>212.8393079519278</v>
+        <v>9.656714574216494</v>
       </c>
     </row>
     <row r="34">
@@ -29913,37 +29913,37 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>212.8393079519278</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>212.8393079519278</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>212.8393079519278</v>
+        <v>168.6953014514208</v>
       </c>
       <c r="H34" t="n">
         <v>165.7757334795251</v>
       </c>
       <c r="I34" t="n">
-        <v>212.5286398675459</v>
+        <v>164.6883657250528</v>
       </c>
       <c r="J34" t="n">
         <v>119.8526328486804</v>
       </c>
       <c r="K34" t="n">
-        <v>66.39406177691131</v>
+        <v>66.3940617769113</v>
       </c>
       <c r="L34" t="n">
-        <v>31.33805968349145</v>
+        <v>31.33805968349144</v>
       </c>
       <c r="M34" t="n">
-        <v>24.35887319852012</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="N34" t="n">
-        <v>15.68256630572603</v>
+        <v>54.60655049976474</v>
       </c>
       <c r="O34" t="n">
-        <v>36.70523308254137</v>
+        <v>36.70523308254135</v>
       </c>
       <c r="P34" t="n">
         <v>57.81660688993937</v>
@@ -29952,7 +29952,7 @@
         <v>126.7586570094679</v>
       </c>
       <c r="R34" t="n">
-        <v>203.1838537831904</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="S34" t="n">
         <v>212.8393079519278</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="C35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="D35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="E35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="F35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="G35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="H35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="I35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="J35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="K35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="N35" t="n">
-        <v>236.9135307750558</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="P35" t="n">
-        <v>126.1180447692234</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Q35" t="n">
-        <v>236.9135307750558</v>
+        <v>140.6191091665141</v>
       </c>
       <c r="R35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="S35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="T35" t="n">
-        <v>236.9135307750558</v>
+        <v>222.4124663777658</v>
       </c>
       <c r="U35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Y35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
     </row>
     <row r="36">
@@ -30074,19 +30074,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7380757353064</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>125.6724707086533</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.1386269945785</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>51.85834769223183</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,28 +30107,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.036068026875139</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>134.3144462547807</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9446082044576</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V36" t="n">
-        <v>236.9135307750558</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>147.6321074410614</v>
+        <v>187.8768215209187</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30168,19 +30168,19 @@
         <v>119.8526328486804</v>
       </c>
       <c r="K37" t="n">
-        <v>66.39406177691131</v>
+        <v>66.3940617769113</v>
       </c>
       <c r="L37" t="n">
-        <v>31.33805968349145</v>
+        <v>31.33805968349144</v>
       </c>
       <c r="M37" t="n">
-        <v>24.35887319852012</v>
+        <v>24.35887319852011</v>
       </c>
       <c r="N37" t="n">
-        <v>15.68256630572603</v>
+        <v>15.68256630572602</v>
       </c>
       <c r="O37" t="n">
-        <v>152.3417889074182</v>
+        <v>150.7709147442015</v>
       </c>
       <c r="P37" t="n">
         <v>57.81660688993937</v>
@@ -30192,19 +30192,19 @@
         <v>203.1838537831904</v>
       </c>
       <c r="S37" t="n">
-        <v>235.3426566118387</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="T37" t="n">
         <v>223.7381717812877</v>
       </c>
       <c r="U37" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V37" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W37" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="C38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="D38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="E38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="F38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="G38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="H38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="I38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="J38" t="n">
-        <v>236.9135307750558</v>
+        <v>75.74597459497524</v>
       </c>
       <c r="K38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="L38" t="n">
-        <v>126.1180447692227</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="N38" t="n">
-        <v>236.9135307750558</v>
+        <v>50.37207017424903</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Q38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="R38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="S38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="T38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="U38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
     </row>
     <row r="39">
@@ -30302,19 +30302,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>101.8357225959826</v>
+        <v>148.7380757353064</v>
       </c>
       <c r="H39" t="n">
         <v>125.6724707086533</v>
@@ -30323,7 +30323,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J39" t="n">
-        <v>51.85834769223185</v>
+        <v>51.85834769223183</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.036068026875139</v>
+        <v>6.036068026875125</v>
       </c>
       <c r="R39" t="n">
         <v>134.3144462547807</v>
@@ -30353,22 +30353,22 @@
         <v>191.4695228506099</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9446082044576</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V39" t="n">
-        <v>236.9135307750558</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>122.8261662533427</v>
       </c>
     </row>
     <row r="40">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>222.7971266867615</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>236.9135307750558</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -30402,22 +30402,22 @@
         <v>164.6883657250528</v>
       </c>
       <c r="J40" t="n">
-        <v>119.8526328486804</v>
+        <v>235.4891886735575</v>
       </c>
       <c r="K40" t="n">
-        <v>66.39406177691131</v>
+        <v>66.3940617769113</v>
       </c>
       <c r="L40" t="n">
-        <v>31.33805968349145</v>
+        <v>31.33805968349144</v>
       </c>
       <c r="M40" t="n">
-        <v>24.35887319852012</v>
+        <v>24.35887319852011</v>
       </c>
       <c r="N40" t="n">
-        <v>15.68256630572603</v>
+        <v>15.68256630572602</v>
       </c>
       <c r="O40" t="n">
-        <v>36.70523308254137</v>
+        <v>36.70523308254135</v>
       </c>
       <c r="P40" t="n">
         <v>57.81660688993937</v>
@@ -30435,13 +30435,13 @@
         <v>223.7381717812877</v>
       </c>
       <c r="U40" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V40" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W40" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="C41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="D41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="E41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="F41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="G41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="H41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="I41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="J41" t="n">
-        <v>236.9135307750558</v>
+        <v>75.74597459497524</v>
       </c>
       <c r="K41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>50.37207017424905</v>
       </c>
       <c r="M41" t="n">
-        <v>126.1180447692221</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="P41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Q41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="R41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="S41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="T41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="U41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
     </row>
     <row r="42">
@@ -30551,7 +30551,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7380757353064</v>
       </c>
       <c r="H42" t="n">
         <v>125.6724707086533</v>
@@ -30560,7 +30560,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J42" t="n">
-        <v>51.85834769223185</v>
+        <v>51.85834769223183</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,25 +30581,25 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.036068026875139</v>
+        <v>6.036068026875125</v>
       </c>
       <c r="R42" t="n">
-        <v>134.3144462547807</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4695228506099</v>
+        <v>53.39827738490789</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9446082044576</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W42" t="n">
-        <v>135.2348373604775</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30627,7 +30627,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>144.4085642777359</v>
       </c>
       <c r="G43" t="n">
         <v>168.6953014514208</v>
@@ -30639,28 +30639,28 @@
         <v>164.6883657250528</v>
       </c>
       <c r="J43" t="n">
-        <v>125.3343149079691</v>
+        <v>119.8526328486804</v>
       </c>
       <c r="K43" t="n">
-        <v>66.39406177691131</v>
+        <v>66.3940617769113</v>
       </c>
       <c r="L43" t="n">
-        <v>31.33805968349145</v>
+        <v>31.33805968349144</v>
       </c>
       <c r="M43" t="n">
-        <v>24.35887319852012</v>
+        <v>24.35887319852011</v>
       </c>
       <c r="N43" t="n">
-        <v>15.68256630572603</v>
+        <v>15.68256630572602</v>
       </c>
       <c r="O43" t="n">
-        <v>36.70523308254137</v>
+        <v>36.70523308254135</v>
       </c>
       <c r="P43" t="n">
         <v>57.81660688993937</v>
       </c>
       <c r="Q43" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="R43" t="n">
         <v>203.1838537831904</v>
@@ -30672,13 +30672,13 @@
         <v>223.7381717812877</v>
       </c>
       <c r="U43" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V43" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W43" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30724,19 +30724,19 @@
         <v>236.9135307750557</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
         <v>236.9135307750557</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
       <c r="N44" t="n">
-        <v>126.1180447692233</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>112.780760468406</v>
       </c>
       <c r="P44" t="n">
-        <v>236.9135307750557</v>
+        <v>13.33728430081824</v>
       </c>
       <c r="Q44" t="n">
         <v>236.9135307750557</v>
@@ -30773,10 +30773,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>35.66386108551669</v>
       </c>
       <c r="C45" t="n">
-        <v>140.8850521729217</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -30788,7 +30788,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7380757353064</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>125.6724707086533</v>
@@ -30797,7 +30797,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J45" t="n">
-        <v>51.85834769223185</v>
+        <v>51.85834769223183</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,13 +30818,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.036068026875139</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.3144462547807</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4695228506099</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>214.9446082044576</v>
@@ -30839,10 +30839,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -30864,7 +30864,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>236.9135307750557</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
         <v>168.6953014514208</v>
@@ -30879,31 +30879,31 @@
         <v>119.8526328486804</v>
       </c>
       <c r="K46" t="n">
-        <v>66.39406177691131</v>
+        <v>66.3940617769113</v>
       </c>
       <c r="L46" t="n">
-        <v>31.33805968349145</v>
+        <v>31.33805968349144</v>
       </c>
       <c r="M46" t="n">
-        <v>24.35887319852012</v>
+        <v>24.35887319852011</v>
       </c>
       <c r="N46" t="n">
-        <v>15.68256630572603</v>
+        <v>15.68256630572602</v>
       </c>
       <c r="O46" t="n">
-        <v>54.35514035080925</v>
+        <v>36.70523308254135</v>
       </c>
       <c r="P46" t="n">
         <v>57.81660688993937</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.7586570094679</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="R46" t="n">
-        <v>203.1838537831904</v>
+        <v>207.0946616792627</v>
       </c>
       <c r="S46" t="n">
-        <v>235.3426566118387</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="T46" t="n">
         <v>223.7381717812877</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4189213071895396</v>
+        <v>0.4189213071895398</v>
       </c>
       <c r="H11" t="n">
-        <v>4.290277837254874</v>
+        <v>4.290277837254876</v>
       </c>
       <c r="I11" t="n">
-        <v>16.15046369542474</v>
+        <v>16.15046369542475</v>
       </c>
       <c r="J11" t="n">
-        <v>35.55542229607822</v>
+        <v>35.55542229607823</v>
       </c>
       <c r="K11" t="n">
-        <v>53.28836122941144</v>
+        <v>53.28836122941146</v>
       </c>
       <c r="L11" t="n">
-        <v>66.10892418431332</v>
+        <v>66.10892418431335</v>
       </c>
       <c r="M11" t="n">
-        <v>73.5589159810453</v>
+        <v>73.55891598104533</v>
       </c>
       <c r="N11" t="n">
-        <v>74.74917614509759</v>
+        <v>74.74917614509762</v>
       </c>
       <c r="O11" t="n">
-        <v>70.5835273967316</v>
+        <v>70.58352739673163</v>
       </c>
       <c r="P11" t="n">
-        <v>60.24140762548983</v>
+        <v>60.24140762548986</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.23878831176443</v>
+        <v>45.23878831176444</v>
       </c>
       <c r="R11" t="n">
-        <v>26.31506556274494</v>
+        <v>26.31506556274495</v>
       </c>
       <c r="S11" t="n">
-        <v>9.546169287581643</v>
+        <v>9.546169287581648</v>
       </c>
       <c r="T11" t="n">
         <v>1.833828022222211</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03351370457516317</v>
+        <v>0.03351370457516318</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2241426597854222</v>
+        <v>0.2241426597854223</v>
       </c>
       <c r="H12" t="n">
-        <v>2.16474621424342</v>
+        <v>2.164746214243421</v>
       </c>
       <c r="I12" t="n">
-        <v>7.717192453138442</v>
+        <v>7.717192453138446</v>
       </c>
       <c r="J12" t="n">
         <v>21.17656594051659</v>
       </c>
       <c r="K12" t="n">
-        <v>36.19412414613988</v>
+        <v>36.19412414613989</v>
       </c>
       <c r="L12" t="n">
-        <v>48.66746654683039</v>
+        <v>48.66746654683041</v>
       </c>
       <c r="M12" t="n">
-        <v>56.79263796405193</v>
+        <v>56.79263796405196</v>
       </c>
       <c r="N12" t="n">
-        <v>58.29577009919191</v>
+        <v>58.29577009919193</v>
       </c>
       <c r="O12" t="n">
-        <v>53.3292406376307</v>
+        <v>53.32924063763073</v>
       </c>
       <c r="P12" t="n">
-        <v>42.80141720060401</v>
+        <v>42.80141720060403</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.61161390524092</v>
+        <v>28.61161390524093</v>
       </c>
       <c r="R12" t="n">
         <v>13.91650654351947</v>
       </c>
       <c r="S12" t="n">
-        <v>4.163351597330099</v>
+        <v>4.163351597330101</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9034522120298376</v>
+        <v>0.9034522120298379</v>
       </c>
       <c r="U12" t="n">
         <v>0.014746227617462</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1879136765241604</v>
+        <v>0.1879136765241605</v>
       </c>
       <c r="H13" t="n">
-        <v>1.670723414914809</v>
+        <v>1.67072341491481</v>
       </c>
       <c r="I13" t="n">
-        <v>5.651076744926572</v>
+        <v>5.651076744926574</v>
       </c>
       <c r="J13" t="n">
-        <v>13.28549693025814</v>
+        <v>13.28549693025815</v>
       </c>
       <c r="K13" t="n">
-        <v>21.832152599807</v>
+        <v>21.83215259980701</v>
       </c>
       <c r="L13" t="n">
-        <v>27.937638780692</v>
+        <v>27.93763878069201</v>
       </c>
       <c r="M13" t="n">
-        <v>29.45632294823725</v>
+        <v>29.45632294823726</v>
       </c>
       <c r="N13" t="n">
-        <v>28.75591742664722</v>
+        <v>28.75591742664723</v>
       </c>
       <c r="O13" t="n">
-        <v>26.56074402361498</v>
+        <v>26.56074402361499</v>
       </c>
       <c r="P13" t="n">
-        <v>22.72730502252208</v>
+        <v>22.72730502252209</v>
       </c>
       <c r="Q13" t="n">
         <v>15.73520794967311</v>
       </c>
       <c r="R13" t="n">
-        <v>8.449282218986339</v>
+        <v>8.449282218986342</v>
       </c>
       <c r="S13" t="n">
-        <v>3.274822889971049</v>
+        <v>3.274822889971051</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8029038906032306</v>
+        <v>0.802903890603231</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01024983690131785</v>
+        <v>0.01024983690131786</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4189213071895396</v>
+        <v>0.4189213071895398</v>
       </c>
       <c r="H14" t="n">
-        <v>4.290277837254874</v>
+        <v>4.290277837254876</v>
       </c>
       <c r="I14" t="n">
-        <v>16.15046369542474</v>
+        <v>16.15046369542475</v>
       </c>
       <c r="J14" t="n">
-        <v>35.55542229607822</v>
+        <v>35.55542229607823</v>
       </c>
       <c r="K14" t="n">
-        <v>53.28836122941144</v>
+        <v>53.28836122941146</v>
       </c>
       <c r="L14" t="n">
-        <v>66.10892418431332</v>
+        <v>66.10892418431335</v>
       </c>
       <c r="M14" t="n">
-        <v>73.5589159810453</v>
+        <v>73.55891598104533</v>
       </c>
       <c r="N14" t="n">
-        <v>74.74917614509759</v>
+        <v>74.74917614509762</v>
       </c>
       <c r="O14" t="n">
-        <v>70.5835273967316</v>
+        <v>70.58352739673163</v>
       </c>
       <c r="P14" t="n">
-        <v>60.24140762548983</v>
+        <v>60.24140762548986</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.23878831176443</v>
+        <v>45.23878831176444</v>
       </c>
       <c r="R14" t="n">
-        <v>26.31506556274494</v>
+        <v>26.31506556274495</v>
       </c>
       <c r="S14" t="n">
-        <v>9.546169287581643</v>
+        <v>9.546169287581648</v>
       </c>
       <c r="T14" t="n">
         <v>1.833828022222211</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03351370457516317</v>
+        <v>0.03351370457516318</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2241426597854222</v>
+        <v>0.2241426597854223</v>
       </c>
       <c r="H15" t="n">
-        <v>2.16474621424342</v>
+        <v>2.164746214243421</v>
       </c>
       <c r="I15" t="n">
-        <v>7.717192453138442</v>
+        <v>7.717192453138446</v>
       </c>
       <c r="J15" t="n">
         <v>21.17656594051659</v>
       </c>
       <c r="K15" t="n">
-        <v>36.19412414613988</v>
+        <v>36.19412414613989</v>
       </c>
       <c r="L15" t="n">
-        <v>48.66746654683039</v>
+        <v>48.66746654683041</v>
       </c>
       <c r="M15" t="n">
-        <v>56.79263796405193</v>
+        <v>56.79263796405196</v>
       </c>
       <c r="N15" t="n">
-        <v>58.29577009919191</v>
+        <v>58.29577009919193</v>
       </c>
       <c r="O15" t="n">
-        <v>53.3292406376307</v>
+        <v>53.32924063763073</v>
       </c>
       <c r="P15" t="n">
-        <v>42.80141720060401</v>
+        <v>42.80141720060403</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.61161390524092</v>
+        <v>28.61161390524093</v>
       </c>
       <c r="R15" t="n">
         <v>13.91650654351947</v>
       </c>
       <c r="S15" t="n">
-        <v>4.163351597330099</v>
+        <v>4.163351597330101</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9034522120298376</v>
+        <v>0.9034522120298379</v>
       </c>
       <c r="U15" t="n">
         <v>0.014746227617462</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1879136765241604</v>
+        <v>0.1879136765241605</v>
       </c>
       <c r="H16" t="n">
-        <v>1.670723414914809</v>
+        <v>1.67072341491481</v>
       </c>
       <c r="I16" t="n">
-        <v>5.651076744926572</v>
+        <v>5.651076744926574</v>
       </c>
       <c r="J16" t="n">
-        <v>13.28549693025814</v>
+        <v>13.28549693025815</v>
       </c>
       <c r="K16" t="n">
-        <v>21.832152599807</v>
+        <v>21.83215259980701</v>
       </c>
       <c r="L16" t="n">
-        <v>27.937638780692</v>
+        <v>27.93763878069201</v>
       </c>
       <c r="M16" t="n">
-        <v>29.45632294823725</v>
+        <v>29.45632294823726</v>
       </c>
       <c r="N16" t="n">
-        <v>28.75591742664722</v>
+        <v>28.75591742664723</v>
       </c>
       <c r="O16" t="n">
-        <v>26.56074402361498</v>
+        <v>26.56074402361499</v>
       </c>
       <c r="P16" t="n">
-        <v>22.72730502252208</v>
+        <v>22.72730502252209</v>
       </c>
       <c r="Q16" t="n">
         <v>15.73520794967311</v>
       </c>
       <c r="R16" t="n">
-        <v>8.449282218986339</v>
+        <v>8.449282218986342</v>
       </c>
       <c r="S16" t="n">
-        <v>3.274822889971049</v>
+        <v>3.274822889971051</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8029038906032306</v>
+        <v>0.802903890603231</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01024983690131785</v>
+        <v>0.01024983690131786</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4189213071895396</v>
+        <v>0.4189213071895398</v>
       </c>
       <c r="H17" t="n">
-        <v>4.290277837254874</v>
+        <v>4.290277837254876</v>
       </c>
       <c r="I17" t="n">
-        <v>16.15046369542474</v>
+        <v>16.15046369542475</v>
       </c>
       <c r="J17" t="n">
-        <v>35.55542229607822</v>
+        <v>35.55542229607823</v>
       </c>
       <c r="K17" t="n">
-        <v>53.28836122941144</v>
+        <v>53.28836122941146</v>
       </c>
       <c r="L17" t="n">
-        <v>66.10892418431332</v>
+        <v>66.10892418431335</v>
       </c>
       <c r="M17" t="n">
-        <v>73.5589159810453</v>
+        <v>73.55891598104533</v>
       </c>
       <c r="N17" t="n">
-        <v>74.74917614509759</v>
+        <v>74.74917614509762</v>
       </c>
       <c r="O17" t="n">
-        <v>70.5835273967316</v>
+        <v>70.58352739673163</v>
       </c>
       <c r="P17" t="n">
-        <v>60.24140762548983</v>
+        <v>60.24140762548986</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.23878831176443</v>
+        <v>45.23878831176444</v>
       </c>
       <c r="R17" t="n">
-        <v>26.31506556274494</v>
+        <v>26.31506556274495</v>
       </c>
       <c r="S17" t="n">
-        <v>9.546169287581643</v>
+        <v>9.546169287581648</v>
       </c>
       <c r="T17" t="n">
         <v>1.833828022222211</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03351370457516317</v>
+        <v>0.03351370457516318</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2241426597854222</v>
+        <v>0.2241426597854223</v>
       </c>
       <c r="H18" t="n">
-        <v>2.16474621424342</v>
+        <v>2.164746214243421</v>
       </c>
       <c r="I18" t="n">
-        <v>7.717192453138442</v>
+        <v>7.717192453138446</v>
       </c>
       <c r="J18" t="n">
         <v>21.17656594051659</v>
       </c>
       <c r="K18" t="n">
-        <v>36.19412414613988</v>
+        <v>36.19412414613989</v>
       </c>
       <c r="L18" t="n">
-        <v>48.66746654683039</v>
+        <v>48.66746654683041</v>
       </c>
       <c r="M18" t="n">
-        <v>56.79263796405193</v>
+        <v>56.79263796405196</v>
       </c>
       <c r="N18" t="n">
-        <v>58.29577009919191</v>
+        <v>58.29577009919193</v>
       </c>
       <c r="O18" t="n">
-        <v>53.3292406376307</v>
+        <v>53.32924063763073</v>
       </c>
       <c r="P18" t="n">
-        <v>42.80141720060401</v>
+        <v>42.80141720060403</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.61161390524092</v>
+        <v>28.61161390524093</v>
       </c>
       <c r="R18" t="n">
         <v>13.91650654351947</v>
       </c>
       <c r="S18" t="n">
-        <v>4.163351597330099</v>
+        <v>4.163351597330101</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9034522120298376</v>
+        <v>0.9034522120298379</v>
       </c>
       <c r="U18" t="n">
         <v>0.014746227617462</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1879136765241604</v>
+        <v>0.1879136765241605</v>
       </c>
       <c r="H19" t="n">
-        <v>1.670723414914809</v>
+        <v>1.67072341491481</v>
       </c>
       <c r="I19" t="n">
-        <v>5.651076744926572</v>
+        <v>5.651076744926574</v>
       </c>
       <c r="J19" t="n">
-        <v>13.28549693025814</v>
+        <v>13.28549693025815</v>
       </c>
       <c r="K19" t="n">
-        <v>21.832152599807</v>
+        <v>21.83215259980701</v>
       </c>
       <c r="L19" t="n">
-        <v>27.937638780692</v>
+        <v>27.93763878069201</v>
       </c>
       <c r="M19" t="n">
-        <v>29.45632294823725</v>
+        <v>29.45632294823726</v>
       </c>
       <c r="N19" t="n">
-        <v>28.75591742664722</v>
+        <v>28.75591742664723</v>
       </c>
       <c r="O19" t="n">
-        <v>26.56074402361498</v>
+        <v>26.56074402361499</v>
       </c>
       <c r="P19" t="n">
-        <v>22.72730502252208</v>
+        <v>22.72730502252209</v>
       </c>
       <c r="Q19" t="n">
         <v>15.73520794967311</v>
       </c>
       <c r="R19" t="n">
-        <v>8.449282218986339</v>
+        <v>8.449282218986342</v>
       </c>
       <c r="S19" t="n">
-        <v>3.274822889971049</v>
+        <v>3.274822889971051</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8029038906032306</v>
+        <v>0.802903890603231</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01024983690131785</v>
+        <v>0.01024983690131786</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4189213071895396</v>
+        <v>0.4189213071895398</v>
       </c>
       <c r="H20" t="n">
-        <v>4.290277837254874</v>
+        <v>4.290277837254876</v>
       </c>
       <c r="I20" t="n">
-        <v>16.15046369542474</v>
+        <v>16.15046369542475</v>
       </c>
       <c r="J20" t="n">
-        <v>35.55542229607822</v>
+        <v>35.55542229607823</v>
       </c>
       <c r="K20" t="n">
-        <v>53.28836122941144</v>
+        <v>53.28836122941146</v>
       </c>
       <c r="L20" t="n">
-        <v>66.10892418431332</v>
+        <v>66.10892418431335</v>
       </c>
       <c r="M20" t="n">
-        <v>73.5589159810453</v>
+        <v>73.55891598104533</v>
       </c>
       <c r="N20" t="n">
-        <v>74.74917614509759</v>
+        <v>74.74917614509762</v>
       </c>
       <c r="O20" t="n">
-        <v>70.5835273967316</v>
+        <v>70.58352739673163</v>
       </c>
       <c r="P20" t="n">
-        <v>60.24140762548983</v>
+        <v>60.24140762548986</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.23878831176443</v>
+        <v>45.23878831176444</v>
       </c>
       <c r="R20" t="n">
-        <v>26.31506556274494</v>
+        <v>26.31506556274495</v>
       </c>
       <c r="S20" t="n">
-        <v>9.546169287581643</v>
+        <v>9.546169287581648</v>
       </c>
       <c r="T20" t="n">
         <v>1.833828022222211</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03351370457516317</v>
+        <v>0.03351370457516318</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2241426597854222</v>
+        <v>0.2241426597854223</v>
       </c>
       <c r="H21" t="n">
-        <v>2.16474621424342</v>
+        <v>2.164746214243421</v>
       </c>
       <c r="I21" t="n">
-        <v>7.717192453138442</v>
+        <v>7.717192453138446</v>
       </c>
       <c r="J21" t="n">
         <v>21.17656594051659</v>
       </c>
       <c r="K21" t="n">
-        <v>36.19412414613988</v>
+        <v>36.19412414613989</v>
       </c>
       <c r="L21" t="n">
-        <v>48.66746654683039</v>
+        <v>48.66746654683041</v>
       </c>
       <c r="M21" t="n">
-        <v>56.79263796405193</v>
+        <v>56.79263796405196</v>
       </c>
       <c r="N21" t="n">
-        <v>58.29577009919191</v>
+        <v>58.29577009919193</v>
       </c>
       <c r="O21" t="n">
-        <v>53.3292406376307</v>
+        <v>53.32924063763073</v>
       </c>
       <c r="P21" t="n">
-        <v>42.80141720060401</v>
+        <v>42.80141720060403</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.61161390524092</v>
+        <v>28.61161390524093</v>
       </c>
       <c r="R21" t="n">
         <v>13.91650654351947</v>
       </c>
       <c r="S21" t="n">
-        <v>4.163351597330099</v>
+        <v>4.163351597330101</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9034522120298376</v>
+        <v>0.9034522120298379</v>
       </c>
       <c r="U21" t="n">
         <v>0.014746227617462</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1879136765241604</v>
+        <v>0.1879136765241605</v>
       </c>
       <c r="H22" t="n">
-        <v>1.670723414914809</v>
+        <v>1.67072341491481</v>
       </c>
       <c r="I22" t="n">
-        <v>5.651076744926572</v>
+        <v>5.651076744926574</v>
       </c>
       <c r="J22" t="n">
-        <v>13.28549693025814</v>
+        <v>13.28549693025815</v>
       </c>
       <c r="K22" t="n">
-        <v>21.832152599807</v>
+        <v>21.83215259980701</v>
       </c>
       <c r="L22" t="n">
-        <v>27.937638780692</v>
+        <v>27.93763878069201</v>
       </c>
       <c r="M22" t="n">
-        <v>29.45632294823725</v>
+        <v>29.45632294823726</v>
       </c>
       <c r="N22" t="n">
-        <v>28.75591742664722</v>
+        <v>28.75591742664723</v>
       </c>
       <c r="O22" t="n">
-        <v>26.56074402361498</v>
+        <v>26.56074402361499</v>
       </c>
       <c r="P22" t="n">
-        <v>22.72730502252208</v>
+        <v>22.72730502252209</v>
       </c>
       <c r="Q22" t="n">
         <v>15.73520794967311</v>
       </c>
       <c r="R22" t="n">
-        <v>8.449282218986339</v>
+        <v>8.449282218986342</v>
       </c>
       <c r="S22" t="n">
-        <v>3.274822889971049</v>
+        <v>3.274822889971051</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8029038906032306</v>
+        <v>0.802903890603231</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01024983690131785</v>
+        <v>0.01024983690131786</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4189213071895396</v>
+        <v>0.4189213071895398</v>
       </c>
       <c r="H23" t="n">
-        <v>4.290277837254874</v>
+        <v>4.290277837254876</v>
       </c>
       <c r="I23" t="n">
-        <v>16.15046369542474</v>
+        <v>16.15046369542475</v>
       </c>
       <c r="J23" t="n">
-        <v>35.55542229607822</v>
+        <v>35.55542229607823</v>
       </c>
       <c r="K23" t="n">
-        <v>53.28836122941144</v>
+        <v>53.28836122941146</v>
       </c>
       <c r="L23" t="n">
-        <v>66.10892418431332</v>
+        <v>66.10892418431335</v>
       </c>
       <c r="M23" t="n">
-        <v>73.5589159810453</v>
+        <v>73.55891598104533</v>
       </c>
       <c r="N23" t="n">
-        <v>74.74917614509759</v>
+        <v>74.74917614509762</v>
       </c>
       <c r="O23" t="n">
-        <v>70.5835273967316</v>
+        <v>70.58352739673163</v>
       </c>
       <c r="P23" t="n">
-        <v>60.24140762548983</v>
+        <v>60.24140762548986</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.23878831176443</v>
+        <v>45.23878831176444</v>
       </c>
       <c r="R23" t="n">
-        <v>26.31506556274494</v>
+        <v>26.31506556274495</v>
       </c>
       <c r="S23" t="n">
-        <v>9.546169287581643</v>
+        <v>9.546169287581648</v>
       </c>
       <c r="T23" t="n">
         <v>1.833828022222211</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03351370457516317</v>
+        <v>0.03351370457516318</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2241426597854222</v>
+        <v>0.2241426597854223</v>
       </c>
       <c r="H24" t="n">
-        <v>2.16474621424342</v>
+        <v>2.164746214243421</v>
       </c>
       <c r="I24" t="n">
-        <v>7.717192453138442</v>
+        <v>7.717192453138446</v>
       </c>
       <c r="J24" t="n">
         <v>21.17656594051659</v>
       </c>
       <c r="K24" t="n">
-        <v>36.19412414613988</v>
+        <v>36.19412414613989</v>
       </c>
       <c r="L24" t="n">
-        <v>48.66746654683039</v>
+        <v>48.66746654683041</v>
       </c>
       <c r="M24" t="n">
-        <v>56.79263796405193</v>
+        <v>56.79263796405196</v>
       </c>
       <c r="N24" t="n">
-        <v>58.29577009919191</v>
+        <v>58.29577009919193</v>
       </c>
       <c r="O24" t="n">
-        <v>53.3292406376307</v>
+        <v>53.32924063763073</v>
       </c>
       <c r="P24" t="n">
-        <v>42.80141720060401</v>
+        <v>42.80141720060403</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.61161390524092</v>
+        <v>28.61161390524093</v>
       </c>
       <c r="R24" t="n">
         <v>13.91650654351947</v>
       </c>
       <c r="S24" t="n">
-        <v>4.163351597330099</v>
+        <v>4.163351597330101</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9034522120298376</v>
+        <v>0.9034522120298379</v>
       </c>
       <c r="U24" t="n">
         <v>0.014746227617462</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1879136765241604</v>
+        <v>0.1879136765241605</v>
       </c>
       <c r="H25" t="n">
-        <v>1.670723414914809</v>
+        <v>1.67072341491481</v>
       </c>
       <c r="I25" t="n">
-        <v>5.651076744926572</v>
+        <v>5.651076744926574</v>
       </c>
       <c r="J25" t="n">
-        <v>13.28549693025814</v>
+        <v>13.28549693025815</v>
       </c>
       <c r="K25" t="n">
-        <v>21.832152599807</v>
+        <v>21.83215259980701</v>
       </c>
       <c r="L25" t="n">
-        <v>27.937638780692</v>
+        <v>27.93763878069201</v>
       </c>
       <c r="M25" t="n">
-        <v>29.45632294823725</v>
+        <v>29.45632294823726</v>
       </c>
       <c r="N25" t="n">
-        <v>28.75591742664722</v>
+        <v>28.75591742664723</v>
       </c>
       <c r="O25" t="n">
-        <v>26.56074402361498</v>
+        <v>26.56074402361499</v>
       </c>
       <c r="P25" t="n">
-        <v>22.72730502252208</v>
+        <v>22.72730502252209</v>
       </c>
       <c r="Q25" t="n">
         <v>15.73520794967311</v>
       </c>
       <c r="R25" t="n">
-        <v>8.449282218986339</v>
+        <v>8.449282218986342</v>
       </c>
       <c r="S25" t="n">
-        <v>3.274822889971049</v>
+        <v>3.274822889971051</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8029038906032306</v>
+        <v>0.802903890603231</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01024983690131785</v>
+        <v>0.01024983690131786</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4189213071895396</v>
+        <v>0.4189213071895398</v>
       </c>
       <c r="H26" t="n">
-        <v>4.290277837254874</v>
+        <v>4.290277837254876</v>
       </c>
       <c r="I26" t="n">
-        <v>16.15046369542474</v>
+        <v>16.15046369542475</v>
       </c>
       <c r="J26" t="n">
-        <v>35.55542229607822</v>
+        <v>35.55542229607823</v>
       </c>
       <c r="K26" t="n">
-        <v>53.28836122941144</v>
+        <v>53.28836122941146</v>
       </c>
       <c r="L26" t="n">
-        <v>66.10892418431332</v>
+        <v>66.10892418431335</v>
       </c>
       <c r="M26" t="n">
-        <v>73.5589159810453</v>
+        <v>73.55891598104533</v>
       </c>
       <c r="N26" t="n">
-        <v>74.74917614509759</v>
+        <v>74.74917614509762</v>
       </c>
       <c r="O26" t="n">
-        <v>70.5835273967316</v>
+        <v>70.58352739673163</v>
       </c>
       <c r="P26" t="n">
-        <v>60.24140762548983</v>
+        <v>60.24140762548986</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.23878831176443</v>
+        <v>45.23878831176444</v>
       </c>
       <c r="R26" t="n">
-        <v>26.31506556274494</v>
+        <v>26.31506556274495</v>
       </c>
       <c r="S26" t="n">
-        <v>9.546169287581643</v>
+        <v>9.546169287581648</v>
       </c>
       <c r="T26" t="n">
         <v>1.833828022222211</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03351370457516317</v>
+        <v>0.03351370457516318</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2241426597854222</v>
+        <v>0.2241426597854223</v>
       </c>
       <c r="H27" t="n">
-        <v>2.16474621424342</v>
+        <v>2.164746214243421</v>
       </c>
       <c r="I27" t="n">
-        <v>7.717192453138442</v>
+        <v>7.717192453138446</v>
       </c>
       <c r="J27" t="n">
         <v>21.17656594051659</v>
       </c>
       <c r="K27" t="n">
-        <v>36.19412414613988</v>
+        <v>36.19412414613989</v>
       </c>
       <c r="L27" t="n">
-        <v>48.66746654683039</v>
+        <v>48.66746654683041</v>
       </c>
       <c r="M27" t="n">
-        <v>56.79263796405193</v>
+        <v>56.79263796405196</v>
       </c>
       <c r="N27" t="n">
-        <v>58.29577009919191</v>
+        <v>58.29577009919193</v>
       </c>
       <c r="O27" t="n">
-        <v>53.3292406376307</v>
+        <v>53.32924063763073</v>
       </c>
       <c r="P27" t="n">
-        <v>42.80141720060401</v>
+        <v>42.80141720060403</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.61161390524092</v>
+        <v>28.61161390524093</v>
       </c>
       <c r="R27" t="n">
         <v>13.91650654351947</v>
       </c>
       <c r="S27" t="n">
-        <v>4.163351597330099</v>
+        <v>4.163351597330101</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9034522120298376</v>
+        <v>0.9034522120298379</v>
       </c>
       <c r="U27" t="n">
         <v>0.014746227617462</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1879136765241604</v>
+        <v>0.1879136765241605</v>
       </c>
       <c r="H28" t="n">
-        <v>1.670723414914809</v>
+        <v>1.67072341491481</v>
       </c>
       <c r="I28" t="n">
-        <v>5.651076744926572</v>
+        <v>5.651076744926574</v>
       </c>
       <c r="J28" t="n">
-        <v>13.28549693025814</v>
+        <v>13.28549693025815</v>
       </c>
       <c r="K28" t="n">
-        <v>21.832152599807</v>
+        <v>21.83215259980701</v>
       </c>
       <c r="L28" t="n">
-        <v>27.937638780692</v>
+        <v>27.93763878069201</v>
       </c>
       <c r="M28" t="n">
-        <v>29.45632294823725</v>
+        <v>29.45632294823726</v>
       </c>
       <c r="N28" t="n">
-        <v>28.75591742664722</v>
+        <v>28.75591742664723</v>
       </c>
       <c r="O28" t="n">
-        <v>26.56074402361498</v>
+        <v>26.56074402361499</v>
       </c>
       <c r="P28" t="n">
-        <v>22.72730502252208</v>
+        <v>22.72730502252209</v>
       </c>
       <c r="Q28" t="n">
         <v>15.73520794967311</v>
       </c>
       <c r="R28" t="n">
-        <v>8.449282218986339</v>
+        <v>8.449282218986342</v>
       </c>
       <c r="S28" t="n">
-        <v>3.274822889971049</v>
+        <v>3.274822889971051</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8029038906032306</v>
+        <v>0.802903890603231</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01024983690131785</v>
+        <v>0.01024983690131786</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4189213071895396</v>
+        <v>0.4189213071895398</v>
       </c>
       <c r="H29" t="n">
-        <v>4.290277837254874</v>
+        <v>4.290277837254876</v>
       </c>
       <c r="I29" t="n">
-        <v>16.15046369542474</v>
+        <v>16.15046369542475</v>
       </c>
       <c r="J29" t="n">
-        <v>35.55542229607822</v>
+        <v>35.55542229607823</v>
       </c>
       <c r="K29" t="n">
-        <v>53.28836122941144</v>
+        <v>53.28836122941146</v>
       </c>
       <c r="L29" t="n">
-        <v>66.10892418431332</v>
+        <v>66.10892418431335</v>
       </c>
       <c r="M29" t="n">
-        <v>73.5589159810453</v>
+        <v>73.55891598104533</v>
       </c>
       <c r="N29" t="n">
-        <v>74.74917614509759</v>
+        <v>74.74917614509762</v>
       </c>
       <c r="O29" t="n">
-        <v>70.5835273967316</v>
+        <v>70.58352739673163</v>
       </c>
       <c r="P29" t="n">
-        <v>60.24140762548983</v>
+        <v>60.24140762548986</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.23878831176443</v>
+        <v>45.23878831176444</v>
       </c>
       <c r="R29" t="n">
-        <v>26.31506556274494</v>
+        <v>26.31506556274495</v>
       </c>
       <c r="S29" t="n">
-        <v>9.546169287581643</v>
+        <v>9.546169287581648</v>
       </c>
       <c r="T29" t="n">
         <v>1.833828022222211</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03351370457516317</v>
+        <v>0.03351370457516318</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2241426597854222</v>
+        <v>0.2241426597854223</v>
       </c>
       <c r="H30" t="n">
-        <v>2.16474621424342</v>
+        <v>2.164746214243421</v>
       </c>
       <c r="I30" t="n">
-        <v>7.717192453138442</v>
+        <v>7.717192453138446</v>
       </c>
       <c r="J30" t="n">
         <v>21.17656594051659</v>
       </c>
       <c r="K30" t="n">
-        <v>36.19412414613988</v>
+        <v>36.19412414613989</v>
       </c>
       <c r="L30" t="n">
-        <v>48.66746654683039</v>
+        <v>48.66746654683041</v>
       </c>
       <c r="M30" t="n">
-        <v>56.79263796405193</v>
+        <v>56.79263796405196</v>
       </c>
       <c r="N30" t="n">
-        <v>58.29577009919191</v>
+        <v>58.29577009919193</v>
       </c>
       <c r="O30" t="n">
-        <v>53.3292406376307</v>
+        <v>53.32924063763073</v>
       </c>
       <c r="P30" t="n">
-        <v>42.80141720060401</v>
+        <v>42.80141720060403</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.61161390524092</v>
+        <v>28.61161390524093</v>
       </c>
       <c r="R30" t="n">
         <v>13.91650654351947</v>
       </c>
       <c r="S30" t="n">
-        <v>4.163351597330099</v>
+        <v>4.163351597330101</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9034522120298376</v>
+        <v>0.9034522120298379</v>
       </c>
       <c r="U30" t="n">
         <v>0.014746227617462</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1879136765241604</v>
+        <v>0.1879136765241605</v>
       </c>
       <c r="H31" t="n">
-        <v>1.670723414914809</v>
+        <v>1.67072341491481</v>
       </c>
       <c r="I31" t="n">
-        <v>5.651076744926572</v>
+        <v>5.651076744926574</v>
       </c>
       <c r="J31" t="n">
-        <v>13.28549693025814</v>
+        <v>13.28549693025815</v>
       </c>
       <c r="K31" t="n">
-        <v>21.832152599807</v>
+        <v>21.83215259980701</v>
       </c>
       <c r="L31" t="n">
-        <v>27.937638780692</v>
+        <v>27.93763878069201</v>
       </c>
       <c r="M31" t="n">
-        <v>29.45632294823725</v>
+        <v>29.45632294823726</v>
       </c>
       <c r="N31" t="n">
-        <v>28.75591742664722</v>
+        <v>28.75591742664723</v>
       </c>
       <c r="O31" t="n">
-        <v>26.56074402361498</v>
+        <v>26.56074402361499</v>
       </c>
       <c r="P31" t="n">
-        <v>22.72730502252208</v>
+        <v>22.72730502252209</v>
       </c>
       <c r="Q31" t="n">
         <v>15.73520794967311</v>
       </c>
       <c r="R31" t="n">
-        <v>8.449282218986339</v>
+        <v>8.449282218986342</v>
       </c>
       <c r="S31" t="n">
-        <v>3.274822889971049</v>
+        <v>3.274822889971051</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8029038906032306</v>
+        <v>0.802903890603231</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01024983690131785</v>
+        <v>0.01024983690131786</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4189213071895396</v>
+        <v>0.4189213071895398</v>
       </c>
       <c r="H32" t="n">
-        <v>4.290277837254874</v>
+        <v>4.290277837254876</v>
       </c>
       <c r="I32" t="n">
-        <v>16.15046369542474</v>
+        <v>16.15046369542475</v>
       </c>
       <c r="J32" t="n">
-        <v>35.55542229607822</v>
+        <v>35.55542229607823</v>
       </c>
       <c r="K32" t="n">
-        <v>53.28836122941144</v>
+        <v>53.28836122941146</v>
       </c>
       <c r="L32" t="n">
-        <v>66.10892418431332</v>
+        <v>66.10892418431335</v>
       </c>
       <c r="M32" t="n">
-        <v>73.5589159810453</v>
+        <v>73.55891598104533</v>
       </c>
       <c r="N32" t="n">
-        <v>74.74917614509759</v>
+        <v>74.74917614509762</v>
       </c>
       <c r="O32" t="n">
-        <v>70.5835273967316</v>
+        <v>70.58352739673163</v>
       </c>
       <c r="P32" t="n">
-        <v>60.24140762548983</v>
+        <v>60.24140762548986</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.23878831176443</v>
+        <v>45.23878831176444</v>
       </c>
       <c r="R32" t="n">
-        <v>26.31506556274494</v>
+        <v>26.31506556274495</v>
       </c>
       <c r="S32" t="n">
-        <v>9.546169287581643</v>
+        <v>9.546169287581648</v>
       </c>
       <c r="T32" t="n">
         <v>1.833828022222211</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03351370457516317</v>
+        <v>0.03351370457516318</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2241426597854222</v>
+        <v>0.2241426597854223</v>
       </c>
       <c r="H33" t="n">
-        <v>2.16474621424342</v>
+        <v>2.164746214243421</v>
       </c>
       <c r="I33" t="n">
-        <v>7.717192453138442</v>
+        <v>7.717192453138446</v>
       </c>
       <c r="J33" t="n">
         <v>21.17656594051659</v>
       </c>
       <c r="K33" t="n">
-        <v>36.19412414613988</v>
+        <v>36.19412414613989</v>
       </c>
       <c r="L33" t="n">
-        <v>48.66746654683039</v>
+        <v>48.66746654683041</v>
       </c>
       <c r="M33" t="n">
-        <v>56.79263796405193</v>
+        <v>56.79263796405196</v>
       </c>
       <c r="N33" t="n">
-        <v>58.29577009919191</v>
+        <v>58.29577009919193</v>
       </c>
       <c r="O33" t="n">
-        <v>53.3292406376307</v>
+        <v>53.32924063763073</v>
       </c>
       <c r="P33" t="n">
-        <v>42.80141720060401</v>
+        <v>42.80141720060403</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.61161390524092</v>
+        <v>28.61161390524093</v>
       </c>
       <c r="R33" t="n">
         <v>13.91650654351947</v>
       </c>
       <c r="S33" t="n">
-        <v>4.163351597330099</v>
+        <v>4.163351597330101</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9034522120298376</v>
+        <v>0.9034522120298379</v>
       </c>
       <c r="U33" t="n">
         <v>0.014746227617462</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1879136765241604</v>
+        <v>0.1879136765241605</v>
       </c>
       <c r="H34" t="n">
-        <v>1.670723414914809</v>
+        <v>1.67072341491481</v>
       </c>
       <c r="I34" t="n">
-        <v>5.651076744926572</v>
+        <v>5.651076744926574</v>
       </c>
       <c r="J34" t="n">
-        <v>13.28549693025814</v>
+        <v>13.28549693025815</v>
       </c>
       <c r="K34" t="n">
-        <v>21.832152599807</v>
+        <v>21.83215259980701</v>
       </c>
       <c r="L34" t="n">
-        <v>27.937638780692</v>
+        <v>27.93763878069201</v>
       </c>
       <c r="M34" t="n">
-        <v>29.45632294823725</v>
+        <v>29.45632294823726</v>
       </c>
       <c r="N34" t="n">
-        <v>28.75591742664722</v>
+        <v>28.75591742664723</v>
       </c>
       <c r="O34" t="n">
-        <v>26.56074402361498</v>
+        <v>26.56074402361499</v>
       </c>
       <c r="P34" t="n">
-        <v>22.72730502252208</v>
+        <v>22.72730502252209</v>
       </c>
       <c r="Q34" t="n">
         <v>15.73520794967311</v>
       </c>
       <c r="R34" t="n">
-        <v>8.449282218986339</v>
+        <v>8.449282218986342</v>
       </c>
       <c r="S34" t="n">
-        <v>3.274822889971049</v>
+        <v>3.274822889971051</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8029038906032306</v>
+        <v>0.802903890603231</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01024983690131785</v>
+        <v>0.01024983690131786</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4189213071895396</v>
+        <v>0.4189213071895398</v>
       </c>
       <c r="H35" t="n">
-        <v>4.290277837254874</v>
+        <v>4.290277837254876</v>
       </c>
       <c r="I35" t="n">
-        <v>16.15046369542474</v>
+        <v>16.15046369542475</v>
       </c>
       <c r="J35" t="n">
-        <v>35.55542229607822</v>
+        <v>35.55542229607823</v>
       </c>
       <c r="K35" t="n">
-        <v>53.28836122941144</v>
+        <v>53.28836122941146</v>
       </c>
       <c r="L35" t="n">
-        <v>66.10892418431332</v>
+        <v>66.10892418431335</v>
       </c>
       <c r="M35" t="n">
-        <v>73.5589159810453</v>
+        <v>73.55891598104533</v>
       </c>
       <c r="N35" t="n">
-        <v>74.74917614509759</v>
+        <v>74.74917614509762</v>
       </c>
       <c r="O35" t="n">
-        <v>70.5835273967316</v>
+        <v>70.58352739673163</v>
       </c>
       <c r="P35" t="n">
-        <v>60.24140762548983</v>
+        <v>60.24140762548986</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.23878831176443</v>
+        <v>45.23878831176444</v>
       </c>
       <c r="R35" t="n">
-        <v>26.31506556274494</v>
+        <v>26.31506556274495</v>
       </c>
       <c r="S35" t="n">
-        <v>9.546169287581643</v>
+        <v>9.546169287581648</v>
       </c>
       <c r="T35" t="n">
         <v>1.833828022222211</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03351370457516317</v>
+        <v>0.03351370457516318</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2241426597854222</v>
+        <v>0.2241426597854223</v>
       </c>
       <c r="H36" t="n">
-        <v>2.16474621424342</v>
+        <v>2.164746214243421</v>
       </c>
       <c r="I36" t="n">
-        <v>7.717192453138442</v>
+        <v>7.717192453138446</v>
       </c>
       <c r="J36" t="n">
         <v>21.17656594051659</v>
       </c>
       <c r="K36" t="n">
-        <v>36.19412414613988</v>
+        <v>36.19412414613989</v>
       </c>
       <c r="L36" t="n">
-        <v>48.66746654683039</v>
+        <v>48.66746654683041</v>
       </c>
       <c r="M36" t="n">
-        <v>56.79263796405193</v>
+        <v>56.79263796405196</v>
       </c>
       <c r="N36" t="n">
-        <v>58.29577009919191</v>
+        <v>58.29577009919193</v>
       </c>
       <c r="O36" t="n">
-        <v>53.3292406376307</v>
+        <v>53.32924063763073</v>
       </c>
       <c r="P36" t="n">
-        <v>42.80141720060401</v>
+        <v>42.80141720060403</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.61161390524092</v>
+        <v>28.61161390524093</v>
       </c>
       <c r="R36" t="n">
         <v>13.91650654351947</v>
       </c>
       <c r="S36" t="n">
-        <v>4.163351597330099</v>
+        <v>4.163351597330101</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9034522120298376</v>
+        <v>0.9034522120298379</v>
       </c>
       <c r="U36" t="n">
         <v>0.014746227617462</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1879136765241604</v>
+        <v>0.1879136765241605</v>
       </c>
       <c r="H37" t="n">
-        <v>1.670723414914809</v>
+        <v>1.67072341491481</v>
       </c>
       <c r="I37" t="n">
-        <v>5.651076744926572</v>
+        <v>5.651076744926574</v>
       </c>
       <c r="J37" t="n">
-        <v>13.28549693025814</v>
+        <v>13.28549693025815</v>
       </c>
       <c r="K37" t="n">
-        <v>21.832152599807</v>
+        <v>21.83215259980701</v>
       </c>
       <c r="L37" t="n">
-        <v>27.937638780692</v>
+        <v>27.93763878069201</v>
       </c>
       <c r="M37" t="n">
-        <v>29.45632294823725</v>
+        <v>29.45632294823726</v>
       </c>
       <c r="N37" t="n">
-        <v>28.75591742664722</v>
+        <v>28.75591742664723</v>
       </c>
       <c r="O37" t="n">
-        <v>26.56074402361498</v>
+        <v>26.56074402361499</v>
       </c>
       <c r="P37" t="n">
-        <v>22.72730502252208</v>
+        <v>22.72730502252209</v>
       </c>
       <c r="Q37" t="n">
         <v>15.73520794967311</v>
       </c>
       <c r="R37" t="n">
-        <v>8.449282218986339</v>
+        <v>8.449282218986342</v>
       </c>
       <c r="S37" t="n">
-        <v>3.274822889971049</v>
+        <v>3.274822889971051</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8029038906032306</v>
+        <v>0.802903890603231</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01024983690131785</v>
+        <v>0.01024983690131786</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4189213071895396</v>
+        <v>0.4189213071895398</v>
       </c>
       <c r="H38" t="n">
-        <v>4.290277837254874</v>
+        <v>4.290277837254876</v>
       </c>
       <c r="I38" t="n">
-        <v>16.15046369542474</v>
+        <v>16.15046369542475</v>
       </c>
       <c r="J38" t="n">
-        <v>35.55542229607822</v>
+        <v>35.55542229607823</v>
       </c>
       <c r="K38" t="n">
-        <v>53.28836122941144</v>
+        <v>53.28836122941146</v>
       </c>
       <c r="L38" t="n">
-        <v>66.10892418431332</v>
+        <v>66.10892418431335</v>
       </c>
       <c r="M38" t="n">
-        <v>73.5589159810453</v>
+        <v>73.55891598104533</v>
       </c>
       <c r="N38" t="n">
-        <v>74.74917614509759</v>
+        <v>74.74917614509762</v>
       </c>
       <c r="O38" t="n">
-        <v>70.5835273967316</v>
+        <v>70.58352739673163</v>
       </c>
       <c r="P38" t="n">
-        <v>60.24140762548983</v>
+        <v>60.24140762548986</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.23878831176443</v>
+        <v>45.23878831176444</v>
       </c>
       <c r="R38" t="n">
-        <v>26.31506556274494</v>
+        <v>26.31506556274495</v>
       </c>
       <c r="S38" t="n">
-        <v>9.546169287581643</v>
+        <v>9.546169287581648</v>
       </c>
       <c r="T38" t="n">
         <v>1.833828022222211</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03351370457516317</v>
+        <v>0.03351370457516318</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2241426597854222</v>
+        <v>0.2241426597854223</v>
       </c>
       <c r="H39" t="n">
-        <v>2.16474621424342</v>
+        <v>2.164746214243421</v>
       </c>
       <c r="I39" t="n">
-        <v>7.717192453138442</v>
+        <v>7.717192453138446</v>
       </c>
       <c r="J39" t="n">
         <v>21.17656594051659</v>
       </c>
       <c r="K39" t="n">
-        <v>36.19412414613988</v>
+        <v>36.19412414613989</v>
       </c>
       <c r="L39" t="n">
-        <v>48.66746654683039</v>
+        <v>48.66746654683041</v>
       </c>
       <c r="M39" t="n">
-        <v>56.79263796405193</v>
+        <v>56.79263796405196</v>
       </c>
       <c r="N39" t="n">
-        <v>58.29577009919191</v>
+        <v>58.29577009919193</v>
       </c>
       <c r="O39" t="n">
-        <v>53.3292406376307</v>
+        <v>53.32924063763073</v>
       </c>
       <c r="P39" t="n">
-        <v>42.80141720060401</v>
+        <v>42.80141720060403</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.61161390524092</v>
+        <v>28.61161390524093</v>
       </c>
       <c r="R39" t="n">
         <v>13.91650654351947</v>
       </c>
       <c r="S39" t="n">
-        <v>4.163351597330099</v>
+        <v>4.163351597330101</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9034522120298376</v>
+        <v>0.9034522120298379</v>
       </c>
       <c r="U39" t="n">
         <v>0.014746227617462</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1879136765241604</v>
+        <v>0.1879136765241605</v>
       </c>
       <c r="H40" t="n">
-        <v>1.670723414914809</v>
+        <v>1.67072341491481</v>
       </c>
       <c r="I40" t="n">
-        <v>5.651076744926572</v>
+        <v>5.651076744926574</v>
       </c>
       <c r="J40" t="n">
-        <v>13.28549693025814</v>
+        <v>13.28549693025815</v>
       </c>
       <c r="K40" t="n">
-        <v>21.832152599807</v>
+        <v>21.83215259980701</v>
       </c>
       <c r="L40" t="n">
-        <v>27.937638780692</v>
+        <v>27.93763878069201</v>
       </c>
       <c r="M40" t="n">
-        <v>29.45632294823725</v>
+        <v>29.45632294823726</v>
       </c>
       <c r="N40" t="n">
-        <v>28.75591742664722</v>
+        <v>28.75591742664723</v>
       </c>
       <c r="O40" t="n">
-        <v>26.56074402361498</v>
+        <v>26.56074402361499</v>
       </c>
       <c r="P40" t="n">
-        <v>22.72730502252208</v>
+        <v>22.72730502252209</v>
       </c>
       <c r="Q40" t="n">
         <v>15.73520794967311</v>
       </c>
       <c r="R40" t="n">
-        <v>8.449282218986339</v>
+        <v>8.449282218986342</v>
       </c>
       <c r="S40" t="n">
-        <v>3.274822889971049</v>
+        <v>3.274822889971051</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8029038906032306</v>
+        <v>0.802903890603231</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01024983690131785</v>
+        <v>0.01024983690131786</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4189213071895396</v>
+        <v>0.4189213071895398</v>
       </c>
       <c r="H41" t="n">
-        <v>4.290277837254874</v>
+        <v>4.290277837254876</v>
       </c>
       <c r="I41" t="n">
-        <v>16.15046369542474</v>
+        <v>16.15046369542475</v>
       </c>
       <c r="J41" t="n">
-        <v>35.55542229607822</v>
+        <v>35.55542229607823</v>
       </c>
       <c r="K41" t="n">
-        <v>53.28836122941144</v>
+        <v>53.28836122941146</v>
       </c>
       <c r="L41" t="n">
-        <v>66.10892418431332</v>
+        <v>66.10892418431335</v>
       </c>
       <c r="M41" t="n">
-        <v>73.5589159810453</v>
+        <v>73.55891598104533</v>
       </c>
       <c r="N41" t="n">
-        <v>74.74917614509759</v>
+        <v>74.74917614509762</v>
       </c>
       <c r="O41" t="n">
-        <v>70.5835273967316</v>
+        <v>70.58352739673163</v>
       </c>
       <c r="P41" t="n">
-        <v>60.24140762548983</v>
+        <v>60.24140762548986</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.23878831176443</v>
+        <v>45.23878831176444</v>
       </c>
       <c r="R41" t="n">
-        <v>26.31506556274494</v>
+        <v>26.31506556274495</v>
       </c>
       <c r="S41" t="n">
-        <v>9.546169287581643</v>
+        <v>9.546169287581648</v>
       </c>
       <c r="T41" t="n">
         <v>1.833828022222211</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03351370457516317</v>
+        <v>0.03351370457516318</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2241426597854222</v>
+        <v>0.2241426597854223</v>
       </c>
       <c r="H42" t="n">
-        <v>2.16474621424342</v>
+        <v>2.164746214243421</v>
       </c>
       <c r="I42" t="n">
-        <v>7.717192453138442</v>
+        <v>7.717192453138446</v>
       </c>
       <c r="J42" t="n">
         <v>21.17656594051659</v>
       </c>
       <c r="K42" t="n">
-        <v>36.19412414613988</v>
+        <v>36.19412414613989</v>
       </c>
       <c r="L42" t="n">
-        <v>48.66746654683039</v>
+        <v>48.66746654683041</v>
       </c>
       <c r="M42" t="n">
-        <v>56.79263796405193</v>
+        <v>56.79263796405196</v>
       </c>
       <c r="N42" t="n">
-        <v>58.29577009919191</v>
+        <v>58.29577009919193</v>
       </c>
       <c r="O42" t="n">
-        <v>53.3292406376307</v>
+        <v>53.32924063763073</v>
       </c>
       <c r="P42" t="n">
-        <v>42.80141720060401</v>
+        <v>42.80141720060403</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.61161390524092</v>
+        <v>28.61161390524093</v>
       </c>
       <c r="R42" t="n">
         <v>13.91650654351947</v>
       </c>
       <c r="S42" t="n">
-        <v>4.163351597330099</v>
+        <v>4.163351597330101</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9034522120298376</v>
+        <v>0.9034522120298379</v>
       </c>
       <c r="U42" t="n">
         <v>0.014746227617462</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1879136765241604</v>
+        <v>0.1879136765241605</v>
       </c>
       <c r="H43" t="n">
-        <v>1.670723414914809</v>
+        <v>1.67072341491481</v>
       </c>
       <c r="I43" t="n">
-        <v>5.651076744926572</v>
+        <v>5.651076744926574</v>
       </c>
       <c r="J43" t="n">
-        <v>13.28549693025814</v>
+        <v>13.28549693025815</v>
       </c>
       <c r="K43" t="n">
-        <v>21.832152599807</v>
+        <v>21.83215259980701</v>
       </c>
       <c r="L43" t="n">
-        <v>27.937638780692</v>
+        <v>27.93763878069201</v>
       </c>
       <c r="M43" t="n">
-        <v>29.45632294823725</v>
+        <v>29.45632294823726</v>
       </c>
       <c r="N43" t="n">
-        <v>28.75591742664722</v>
+        <v>28.75591742664723</v>
       </c>
       <c r="O43" t="n">
-        <v>26.56074402361498</v>
+        <v>26.56074402361499</v>
       </c>
       <c r="P43" t="n">
-        <v>22.72730502252208</v>
+        <v>22.72730502252209</v>
       </c>
       <c r="Q43" t="n">
         <v>15.73520794967311</v>
       </c>
       <c r="R43" t="n">
-        <v>8.449282218986339</v>
+        <v>8.449282218986342</v>
       </c>
       <c r="S43" t="n">
-        <v>3.274822889971049</v>
+        <v>3.274822889971051</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8029038906032306</v>
+        <v>0.802903890603231</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01024983690131785</v>
+        <v>0.01024983690131786</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4189213071895396</v>
+        <v>0.4189213071895398</v>
       </c>
       <c r="H44" t="n">
-        <v>4.290277837254874</v>
+        <v>4.290277837254876</v>
       </c>
       <c r="I44" t="n">
-        <v>16.15046369542474</v>
+        <v>16.15046369542475</v>
       </c>
       <c r="J44" t="n">
-        <v>35.55542229607822</v>
+        <v>35.55542229607823</v>
       </c>
       <c r="K44" t="n">
-        <v>53.28836122941144</v>
+        <v>53.28836122941146</v>
       </c>
       <c r="L44" t="n">
-        <v>66.10892418431332</v>
+        <v>66.10892418431335</v>
       </c>
       <c r="M44" t="n">
-        <v>73.5589159810453</v>
+        <v>73.55891598104533</v>
       </c>
       <c r="N44" t="n">
-        <v>74.74917614509759</v>
+        <v>74.74917614509762</v>
       </c>
       <c r="O44" t="n">
-        <v>70.5835273967316</v>
+        <v>70.58352739673163</v>
       </c>
       <c r="P44" t="n">
-        <v>60.24140762548983</v>
+        <v>60.24140762548986</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.23878831176443</v>
+        <v>45.23878831176444</v>
       </c>
       <c r="R44" t="n">
-        <v>26.31506556274494</v>
+        <v>26.31506556274495</v>
       </c>
       <c r="S44" t="n">
-        <v>9.546169287581643</v>
+        <v>9.546169287581648</v>
       </c>
       <c r="T44" t="n">
         <v>1.833828022222211</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03351370457516317</v>
+        <v>0.03351370457516318</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2241426597854222</v>
+        <v>0.2241426597854223</v>
       </c>
       <c r="H45" t="n">
-        <v>2.16474621424342</v>
+        <v>2.164746214243421</v>
       </c>
       <c r="I45" t="n">
-        <v>7.717192453138442</v>
+        <v>7.717192453138446</v>
       </c>
       <c r="J45" t="n">
         <v>21.17656594051659</v>
       </c>
       <c r="K45" t="n">
-        <v>36.19412414613988</v>
+        <v>36.19412414613989</v>
       </c>
       <c r="L45" t="n">
-        <v>48.66746654683039</v>
+        <v>48.66746654683041</v>
       </c>
       <c r="M45" t="n">
-        <v>56.79263796405193</v>
+        <v>56.79263796405196</v>
       </c>
       <c r="N45" t="n">
-        <v>58.29577009919191</v>
+        <v>58.29577009919193</v>
       </c>
       <c r="O45" t="n">
-        <v>53.3292406376307</v>
+        <v>53.32924063763073</v>
       </c>
       <c r="P45" t="n">
-        <v>42.80141720060401</v>
+        <v>42.80141720060403</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.61161390524092</v>
+        <v>28.61161390524093</v>
       </c>
       <c r="R45" t="n">
         <v>13.91650654351947</v>
       </c>
       <c r="S45" t="n">
-        <v>4.163351597330099</v>
+        <v>4.163351597330101</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9034522120298376</v>
+        <v>0.9034522120298379</v>
       </c>
       <c r="U45" t="n">
         <v>0.014746227617462</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1879136765241604</v>
+        <v>0.1879136765241605</v>
       </c>
       <c r="H46" t="n">
-        <v>1.670723414914809</v>
+        <v>1.67072341491481</v>
       </c>
       <c r="I46" t="n">
-        <v>5.651076744926572</v>
+        <v>5.651076744926574</v>
       </c>
       <c r="J46" t="n">
-        <v>13.28549693025814</v>
+        <v>13.28549693025815</v>
       </c>
       <c r="K46" t="n">
-        <v>21.832152599807</v>
+        <v>21.83215259980701</v>
       </c>
       <c r="L46" t="n">
-        <v>27.937638780692</v>
+        <v>27.93763878069201</v>
       </c>
       <c r="M46" t="n">
-        <v>29.45632294823725</v>
+        <v>29.45632294823726</v>
       </c>
       <c r="N46" t="n">
-        <v>28.75591742664722</v>
+        <v>28.75591742664723</v>
       </c>
       <c r="O46" t="n">
-        <v>26.56074402361498</v>
+        <v>26.56074402361499</v>
       </c>
       <c r="P46" t="n">
-        <v>22.72730502252208</v>
+        <v>22.72730502252209</v>
       </c>
       <c r="Q46" t="n">
         <v>15.73520794967311</v>
       </c>
       <c r="R46" t="n">
-        <v>8.449282218986339</v>
+        <v>8.449282218986342</v>
       </c>
       <c r="S46" t="n">
-        <v>3.274822889971049</v>
+        <v>3.274822889971051</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8029038906032306</v>
+        <v>0.802903890603231</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01024983690131785</v>
+        <v>0.01024983690131786</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>49.11836494962076</v>
+        <v>49.11836494962078</v>
       </c>
       <c r="M11" t="n">
-        <v>83.82128114712806</v>
+        <v>83.82128114712809</v>
       </c>
       <c r="N11" t="n">
-        <v>78.2660455762224</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="O11" t="n">
-        <v>36.62222692053277</v>
+        <v>36.6222269205328</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="Q11" t="n">
-        <v>86.57701734253712</v>
+        <v>0.5735953153437853</v>
       </c>
       <c r="R11" t="n">
-        <v>9.373948529882576</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.4010421815729</v>
       </c>
       <c r="L12" t="n">
+        <v>45.01791191725222</v>
+      </c>
+      <c r="M12" t="n">
         <v>86.82170806664908</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="N12" t="n">
-        <v>84.41895409882511</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="O12" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>85.71651423380041</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.822588892714608</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -35550,13 +35550,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>61.8128578104612</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>64.56211680423954</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>34.79369757126544</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>8.582157869500428</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="N13" t="n">
         <v>86.82170806664908</v>
       </c>
       <c r="O13" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="L14" t="n">
-        <v>49.11836494962076</v>
+        <v>58.24762275539123</v>
       </c>
       <c r="M14" t="n">
-        <v>83.82128114712806</v>
+        <v>83.82128114712809</v>
       </c>
       <c r="N14" t="n">
-        <v>78.2660455762224</v>
+        <v>78.26604557622242</v>
       </c>
       <c r="O14" t="n">
-        <v>36.62222692053277</v>
+        <v>36.6222269205328</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>86.57701734253706</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>9.373948529882632</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.4010421815729</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="M15" t="n">
-        <v>84.41895409882511</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="N15" t="n">
-        <v>86.82170806664908</v>
+        <v>43.91271808440355</v>
       </c>
       <c r="O15" t="n">
         <v>86.82170806664908</v>
       </c>
       <c r="P15" t="n">
-        <v>85.71651423380041</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,55 +35778,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.87207835771815</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>37.03181805071389</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>58.30634877197554</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>64.56211680423959</v>
       </c>
       <c r="G16" t="n">
-        <v>34.79369757126544</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>37.71326554316118</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>38.8006332976334</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>42.80777875357196</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>7.023952691704001</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.3051452394958165</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35887,16 +35887,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>49.11836494962076</v>
+        <v>49.11836494962078</v>
       </c>
       <c r="M17" t="n">
-        <v>83.82128114712806</v>
+        <v>83.82128114712809</v>
       </c>
       <c r="N17" t="n">
-        <v>78.2660455762224</v>
+        <v>78.26604557622242</v>
       </c>
       <c r="O17" t="n">
-        <v>36.62222692053277</v>
+        <v>36.6222269205328</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35908,13 +35908,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.55127880648169</v>
+        <v>9.129257805770465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="U17" t="n">
-        <v>84.39968706593798</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35972,13 +35972,13 @@
         <v>86.82170806664908</v>
       </c>
       <c r="N18" t="n">
+        <v>86.82170806664908</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>83.3137602659764</v>
-      </c>
-      <c r="O18" t="n">
-        <v>86.82170806664908</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,32 +36115,32 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>49.11836494962078</v>
+      </c>
+      <c r="M20" t="n">
+        <v>83.82128114712809</v>
+      </c>
+      <c r="N20" t="n">
+        <v>78.26604557622242</v>
+      </c>
+      <c r="O20" t="n">
+        <v>36.6222269205328</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>86.82170806664908</v>
       </c>
-      <c r="J20" t="n">
-        <v>9.129257805770566</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>49.11836494962076</v>
-      </c>
-      <c r="M20" t="n">
-        <v>83.82128114712806</v>
-      </c>
-      <c r="N20" t="n">
-        <v>78.2660455762224</v>
-      </c>
-      <c r="O20" t="n">
-        <v>36.62222692053277</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
@@ -36151,7 +36151,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>9.129257805770436</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>39.4010421815729</v>
       </c>
       <c r="L21" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>86.82170806664908</v>
       </c>
       <c r="N21" t="n">
-        <v>83.3137602659764</v>
+        <v>45.01791191725223</v>
       </c>
       <c r="O21" t="n">
         <v>86.82170806664908</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>85.71651423380041</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>9.129257805770566</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>49.11836494962076</v>
+        <v>49.11836494962078</v>
       </c>
       <c r="M23" t="n">
-        <v>83.82128114712806</v>
+        <v>83.82128114712809</v>
       </c>
       <c r="N23" t="n">
-        <v>78.2660455762224</v>
+        <v>86.82170806664904</v>
       </c>
       <c r="O23" t="n">
-        <v>36.62222692053277</v>
+        <v>36.6222269205328</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>86.82170806664904</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36388,7 +36388,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.5735953153437279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.4010421815729</v>
       </c>
       <c r="L24" t="n">
-        <v>86.82170806664908</v>
+        <v>86.82170806664904</v>
       </c>
       <c r="M24" t="n">
-        <v>86.82170806664908</v>
+        <v>45.01791191725209</v>
       </c>
       <c r="N24" t="n">
-        <v>83.3137602659764</v>
+        <v>86.82170806664904</v>
       </c>
       <c r="O24" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>85.71651423380041</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0933333569524</v>
+        <v>137.0933333569525</v>
       </c>
       <c r="K26" t="n">
-        <v>207.6642782525776</v>
+        <v>207.6642782525777</v>
       </c>
       <c r="L26" t="n">
-        <v>261.9576729015484</v>
+        <v>261.9576729015485</v>
       </c>
       <c r="M26" t="n">
         <v>296.6605890990558</v>
@@ -36607,16 +36607,16 @@
         <v>291.1053535281501</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4615348724612</v>
+        <v>249.4615348724605</v>
       </c>
       <c r="P26" t="n">
-        <v>199.5020236511094</v>
+        <v>199.5020236511095</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.445268564482</v>
+        <v>124.4452685644824</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72425745912407</v>
+        <v>18.72425745912414</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.40104218157288</v>
+        <v>39.4010421815729</v>
       </c>
       <c r="L27" t="n">
         <v>119.9356669720254</v>
@@ -36759,19 +36759,19 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>188.4804347534076</v>
       </c>
       <c r="N28" t="n">
-        <v>150.9792221737251</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>48.57943836277682</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.08065094245981</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>137.0933333569525</v>
       </c>
       <c r="K29" t="n">
-        <v>207.6642782525776</v>
+        <v>207.6642782525777</v>
       </c>
       <c r="L29" t="n">
         <v>261.9576729015485</v>
@@ -36841,19 +36841,19 @@
         <v>296.6605890990558</v>
       </c>
       <c r="N29" t="n">
-        <v>291.1053535281505</v>
+        <v>291.1053535281501</v>
       </c>
       <c r="O29" t="n">
         <v>249.4615348724605</v>
       </c>
       <c r="P29" t="n">
-        <v>199.5020236511095</v>
+        <v>199.5020236511099</v>
       </c>
       <c r="Q29" t="n">
         <v>124.445268564482</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72425745912413</v>
+        <v>18.72425745912414</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.40104218157288</v>
+        <v>39.4010421815729</v>
       </c>
       <c r="L30" t="n">
         <v>119.9356669720254</v>
@@ -36966,22 +36966,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.38212697995539</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>71.16316673970275</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>73.91242573348109</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>44.14400650050693</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>47.06357447240267</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>146.4452461750165</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -36999,10 +36999,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>44.23249996121264</v>
       </c>
       <c r="O31" t="n">
-        <v>0.7766996700910214</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0933333569525</v>
+        <v>137.0933333569526</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6642782525777</v>
+        <v>207.6642782525778</v>
       </c>
       <c r="L32" t="n">
         <v>261.9576729015486</v>
@@ -37078,19 +37078,19 @@
         <v>296.6605890990559</v>
       </c>
       <c r="N32" t="n">
-        <v>291.1053535281502</v>
+        <v>291.1053535281503</v>
       </c>
       <c r="O32" t="n">
         <v>249.4615348724606</v>
       </c>
       <c r="P32" t="n">
-        <v>199.5020236511095</v>
+        <v>199.5020236511096</v>
       </c>
       <c r="Q32" t="n">
         <v>124.4452685644821</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72425745912417</v>
+        <v>18.72425745912423</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.40104218157288</v>
+        <v>39.4010421815729</v>
       </c>
       <c r="L33" t="n">
         <v>119.9356669720254</v>
@@ -37209,19 +37209,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>71.1631667397028</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>73.91242573348114</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>44.14400650050699</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>47.84027414249306</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37233,10 +37233,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>188.4804347534077</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>38.92398419403872</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.655454168737394</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37306,34 +37306,34 @@
         <v>161.1675561800805</v>
       </c>
       <c r="K35" t="n">
-        <v>231.7385010757057</v>
+        <v>231.7385010757056</v>
       </c>
       <c r="L35" t="n">
-        <v>49.11836494962076</v>
+        <v>49.11836494962078</v>
       </c>
       <c r="M35" t="n">
-        <v>83.82128114712806</v>
+        <v>320.7348119221838</v>
       </c>
       <c r="N35" t="n">
-        <v>315.1795763512782</v>
+        <v>78.26604557622242</v>
       </c>
       <c r="O35" t="n">
-        <v>273.5357576955886</v>
+        <v>273.5357576955885</v>
       </c>
       <c r="P35" t="n">
-        <v>112.7807604684052</v>
+        <v>223.5762464742375</v>
       </c>
       <c r="Q35" t="n">
-        <v>148.5194913876101</v>
+        <v>52.22506977906845</v>
       </c>
       <c r="R35" t="n">
-        <v>42.79848028225218</v>
+        <v>42.79848028225207</v>
       </c>
       <c r="S35" t="n">
-        <v>9.67459328457843</v>
+        <v>9.674593284578322</v>
       </c>
       <c r="T35" t="n">
-        <v>14.50106439728996</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.40104218157288</v>
+        <v>39.4010421815729</v>
       </c>
       <c r="L36" t="n">
         <v>119.9356669720254</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>115.6365558248768</v>
+        <v>114.0656816616602</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1.570874163216916</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>161.1675561800805</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>231.7385010757057</v>
+        <v>231.7385010757056</v>
       </c>
       <c r="L38" t="n">
-        <v>175.2364097188435</v>
+        <v>286.0318957246765</v>
       </c>
       <c r="M38" t="n">
-        <v>83.82128114712806</v>
+        <v>320.7348119221838</v>
       </c>
       <c r="N38" t="n">
-        <v>315.1795763512782</v>
+        <v>128.6381157504715</v>
       </c>
       <c r="O38" t="n">
-        <v>36.62222692053277</v>
+        <v>36.6222269205328</v>
       </c>
       <c r="P38" t="n">
         <v>223.5762464742375</v>
       </c>
       <c r="Q38" t="n">
-        <v>148.5194913876101</v>
+        <v>148.51949138761</v>
       </c>
       <c r="R38" t="n">
-        <v>42.79848028225218</v>
+        <v>42.79848028225207</v>
       </c>
       <c r="S38" t="n">
-        <v>9.67459328457843</v>
+        <v>9.674593284578322</v>
       </c>
       <c r="T38" t="n">
-        <v>14.50106439728996</v>
+        <v>14.50106439728984</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.40104218157288</v>
+        <v>39.4010421815729</v>
       </c>
       <c r="L39" t="n">
         <v>119.9356669720254</v>
@@ -37674,10 +37674,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>45.18020602179336</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>70.45634980308344</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>115.6365558248771</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>161.1675561800806</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>231.7385010757057</v>
+        <v>231.7385010757056</v>
       </c>
       <c r="L41" t="n">
-        <v>49.11836494962076</v>
+        <v>99.49043512386983</v>
       </c>
       <c r="M41" t="n">
-        <v>209.9393259163501</v>
+        <v>320.7348119221838</v>
       </c>
       <c r="N41" t="n">
-        <v>78.2660455762224</v>
+        <v>78.26604557622242</v>
       </c>
       <c r="O41" t="n">
-        <v>273.5357576955886</v>
+        <v>273.5357576955885</v>
       </c>
       <c r="P41" t="n">
-        <v>223.5762464742376</v>
+        <v>223.5762464742375</v>
       </c>
       <c r="Q41" t="n">
-        <v>148.5194913876101</v>
+        <v>148.51949138761</v>
       </c>
       <c r="R41" t="n">
-        <v>42.79848028225221</v>
+        <v>42.7984802822521</v>
       </c>
       <c r="S41" t="n">
-        <v>9.674593284578458</v>
+        <v>9.67459328457835</v>
       </c>
       <c r="T41" t="n">
-        <v>14.50106439728998</v>
+        <v>14.50106439728987</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.40104218157288</v>
+        <v>39.4010421815729</v>
       </c>
       <c r="L42" t="n">
         <v>119.9356669720254</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>5.481682059289225</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.481682059288755</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.154873765588</v>
+        <v>110.1548737655878</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,31 +38020,31 @@
         <v>231.7385010757056</v>
       </c>
       <c r="L44" t="n">
-        <v>286.0318957246765</v>
+        <v>49.11836494962078</v>
       </c>
       <c r="M44" t="n">
-        <v>83.82128114712806</v>
+        <v>320.7348119221838</v>
       </c>
       <c r="N44" t="n">
-        <v>204.3840903454457</v>
+        <v>315.1795763512781</v>
       </c>
       <c r="O44" t="n">
-        <v>36.62222692053277</v>
+        <v>149.4029873889388</v>
       </c>
       <c r="P44" t="n">
-        <v>223.5762464742375</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>148.51949138761</v>
       </c>
       <c r="R44" t="n">
-        <v>42.79848028225212</v>
+        <v>42.7984802822521</v>
       </c>
       <c r="S44" t="n">
-        <v>9.674593284578373</v>
+        <v>9.67459328457835</v>
       </c>
       <c r="T44" t="n">
-        <v>14.5010643972899</v>
+        <v>14.50106439728987</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.40104218157288</v>
+        <v>39.4010421815729</v>
       </c>
       <c r="L45" t="n">
         <v>119.9356669720254</v>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>97.98664855660908</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38187,19 +38187,19 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>17.64990726826789</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>110.1548737655878</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>3.910807896072285</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1.570874163216944</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
